--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="251">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -769,6 +769,21 @@
   </si>
   <si>
     <t>with optimization</t>
+  </si>
+  <si>
+    <t>updated results: per-API overhead in cycles over 20 rounds (on svaKernel_opt_no_instr)</t>
+  </si>
+  <si>
+    <t>SVAsyscall</t>
+  </si>
+  <si>
+    <t>sva_invoke</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -18538,16 +18553,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E167:S167"/>
+    <mergeCell ref="E186:S186"/>
+    <mergeCell ref="E141:S141"/>
     <mergeCell ref="E15:S15"/>
     <mergeCell ref="E32:S32"/>
     <mergeCell ref="E62:S62"/>
     <mergeCell ref="E79:S79"/>
     <mergeCell ref="E126:S126"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E167:S167"/>
-    <mergeCell ref="E186:S186"/>
-    <mergeCell ref="E141:S141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19638,10 +19653,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:S67"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19649,19 +19664,21 @@
     <col min="1" max="1" width="28.796875" customWidth="1"/>
     <col min="2" max="2" width="18.1328125" customWidth="1"/>
     <col min="3" max="3" width="19.19921875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.53125" customWidth="1"/>
     <col min="5" max="5" width="14.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.46484375" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.9296875" customWidth="1"/>
     <col min="10" max="10" width="15.1328125" customWidth="1"/>
     <col min="11" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="83" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -21987,12 +22004,1926 @@
         <v>21</v>
       </c>
     </row>
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="99"/>
+    </row>
+    <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A71" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="M71" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="N71" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="O71" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q71" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="R71" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="S71" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="1">
+        <v>120</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>30805</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>30805</v>
+      </c>
+      <c r="O72" s="1">
+        <v>641.48569742400002</v>
+      </c>
+      <c r="P72" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1321.35</v>
+      </c>
+      <c r="C73" s="1">
+        <v>22.5194915573</v>
+      </c>
+      <c r="D73" s="50">
+        <v>727559</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>727559.35</v>
+      </c>
+      <c r="R73" s="1">
+        <v>13910.500933699999</v>
+      </c>
+      <c r="S73" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>782</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>720.52941176499996</v>
+      </c>
+      <c r="I74" s="1">
+        <v>112.712605719</v>
+      </c>
+      <c r="J74" s="1">
+        <v>17</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1136.33333333</v>
+      </c>
+      <c r="L74" s="1">
+        <v>164.528281932</v>
+      </c>
+      <c r="M74" s="1">
+        <v>3</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>11109</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>11109</v>
+      </c>
+      <c r="O75" s="1">
+        <v>147.59369905299999</v>
+      </c>
+      <c r="P75" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1412.7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.9217049922699996</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.8446744071700001E+19</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1.8446744071700001E+19</v>
+      </c>
+      <c r="R76" s="1">
+        <v>5552.3089251199999</v>
+      </c>
+      <c r="S76" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>521</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>521.9</v>
+      </c>
+      <c r="I77" s="1">
+        <v>46.0444350601</v>
+      </c>
+      <c r="J77" s="1">
+        <v>20</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1411.7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6.9217049922699996</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42620</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>42620.65</v>
+      </c>
+      <c r="O78" s="1">
+        <v>8160.6649500800004</v>
+      </c>
+      <c r="P78" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10487</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>10487.25</v>
+      </c>
+      <c r="O79" s="1">
+        <v>343.38722675700001</v>
+      </c>
+      <c r="P79" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="1">
+        <v>129</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>69250</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>69250.649999999994</v>
+      </c>
+      <c r="O80" s="1">
+        <v>560.82281292799996</v>
+      </c>
+      <c r="P80" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1351</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1351.65</v>
+      </c>
+      <c r="L81" s="1">
+        <v>34.587967560999999</v>
+      </c>
+      <c r="M81" s="1">
+        <v>20</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1">
+        <v>897.3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7.75951029383</v>
+      </c>
+      <c r="D82" s="1">
+        <v>27887</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>27887.3</v>
+      </c>
+      <c r="O82" s="1">
+        <v>6841.57025178</v>
+      </c>
+      <c r="P82" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1">
+        <v>125</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="50">
+        <v>175473</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>175473.65</v>
+      </c>
+      <c r="R83" s="1">
+        <v>1037.2821349599999</v>
+      </c>
+      <c r="S83" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>261</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>261.8</v>
+      </c>
+      <c r="I84" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="J84" s="1">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="1">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="50">
+        <v>118928</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>118928.65</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1238.3257356199999</v>
+      </c>
+      <c r="S85" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1412.7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6.9217049922699996</v>
+      </c>
+      <c r="D86" s="1">
+        <v>36718</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>36718.300000000003</v>
+      </c>
+      <c r="O86" s="1">
+        <v>7633.3895819600002</v>
+      </c>
+      <c r="P86" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1961.1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>13.3262898062</v>
+      </c>
+      <c r="D87" s="50">
+        <v>1322101</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1322101.1499999999</v>
+      </c>
+      <c r="R87" s="1">
+        <v>51804.090760599996</v>
+      </c>
+      <c r="S87" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>148</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>148.65</v>
+      </c>
+      <c r="I88" s="1">
+        <v>12.121365434599999</v>
+      </c>
+      <c r="J88" s="1">
+        <v>20</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>836</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>761.22222222200003</v>
+      </c>
+      <c r="I89" s="1">
+        <v>106.792402745</v>
+      </c>
+      <c r="J89" s="1">
+        <v>18</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1511.5</v>
+      </c>
+      <c r="L89" s="1">
+        <v>311.5</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="1">
+        <v>80</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>56201</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>56201.1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>528.71484753100003</v>
+      </c>
+      <c r="P90" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="1">
+        <v>364.65</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6.8137728168800002</v>
+      </c>
+      <c r="D91" s="1">
+        <v>66813</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>58434.944444399996</v>
+      </c>
+      <c r="O91" s="1">
+        <v>19925.1860175</v>
+      </c>
+      <c r="P91" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>142222</v>
+      </c>
+      <c r="R91" s="1">
+        <v>20697</v>
+      </c>
+      <c r="S91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>117</v>
+      </c>
+      <c r="E92" s="1">
+        <v>81</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4.2426406871199998</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>123.47058823499999</v>
+      </c>
+      <c r="I92" s="1">
+        <v>11.8327444336</v>
+      </c>
+      <c r="J92" s="1">
+        <v>17</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>431</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>431.8</v>
+      </c>
+      <c r="I93" s="1">
+        <v>93.546031449799997</v>
+      </c>
+      <c r="J93" s="1">
+        <v>20</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1">
+        <v>23.15</v>
+      </c>
+      <c r="F94" s="1">
+        <v>9.94623044173</v>
+      </c>
+      <c r="G94" s="1">
+        <v>20</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>192</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>192.2</v>
+      </c>
+      <c r="I95" s="1">
+        <v>74.8736268655</v>
+      </c>
+      <c r="J95" s="1">
+        <v>20</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="1">
+        <v>33</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>55493</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>55493.15</v>
+      </c>
+      <c r="O96" s="1">
+        <v>599.35042128999999</v>
+      </c>
+      <c r="P96" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="1">
+        <v>20</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>26024</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>26024.2</v>
+      </c>
+      <c r="O97" s="1">
+        <v>247.91280725300001</v>
+      </c>
+      <c r="P97" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" s="1">
+        <v>896.3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7.75951029383</v>
+      </c>
+      <c r="D98" s="50">
+        <v>222184</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>222184.15</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1640.1341492399999</v>
+      </c>
+      <c r="S98" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="1">
+        <v>65</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>74731</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>74731.649999999994</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1210.2082165899999</v>
+      </c>
+      <c r="P99" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="1">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>10030</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9908.8888888900001</v>
+      </c>
+      <c r="L100" s="1">
+        <v>54.884615218199997</v>
+      </c>
+      <c r="M100" s="1">
+        <v>9</v>
+      </c>
+      <c r="N100" s="1">
+        <v>10130.363636399999</v>
+      </c>
+      <c r="O100" s="1">
+        <v>93.277954842</v>
+      </c>
+      <c r="P100" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7247</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>7247.7</v>
+      </c>
+      <c r="L101" s="1">
+        <v>134.109693908</v>
+      </c>
+      <c r="M101" s="1">
+        <v>20</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="1">
+        <v>338.6</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4.6840153714500001</v>
+      </c>
+      <c r="D102" s="50">
+        <v>199179</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>199179.6</v>
+      </c>
+      <c r="R102" s="1">
+        <v>2532.9159559700001</v>
+      </c>
+      <c r="S102" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="E34:S34"/>
+    <mergeCell ref="E70:S70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22001,10 +23932,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24096,6 +26027,914 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+      <c r="A57" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A58" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I58" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="K58" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="L58" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="M58" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="N58" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="O58" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P58" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q58" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="R58" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="S58" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="1">
+        <v>13565.7619048</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3342.20031466</v>
+      </c>
+      <c r="D59" s="1">
+        <v>512153.142857</v>
+      </c>
+      <c r="E59" s="1">
+        <v>454651.94736799999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>134470.80206799999</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1058414.5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6954.5</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1246543.0476200001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.212958855</v>
+      </c>
+      <c r="D60" s="50">
+        <v>138210830.23800001</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>138210830.23800001</v>
+      </c>
+      <c r="O60" s="1">
+        <v>223230.63961499999</v>
+      </c>
+      <c r="P60" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1743680.1904800001</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.85183542000000001</v>
+      </c>
+      <c r="D61" s="50">
+        <v>680440299.76199996</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>680440299.76199996</v>
+      </c>
+      <c r="O61" s="1">
+        <v>4077279.0579300001</v>
+      </c>
+      <c r="P61" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1">
+        <v>250302.19047599999</v>
+      </c>
+      <c r="C62" s="1">
+        <v>445.781242427</v>
+      </c>
+      <c r="D62" s="50">
+        <v>184293487</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>184293487</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2430494.44649</v>
+      </c>
+      <c r="P62" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3734178.3333299998</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.4907119849999999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>88616117.809499994</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>88616117.809499994</v>
+      </c>
+      <c r="L63" s="1">
+        <v>211558.33252600001</v>
+      </c>
+      <c r="M63" s="1">
+        <v>21</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3734178.28571</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.27775313</v>
+      </c>
+      <c r="D64" s="50">
+        <v>113914496.81</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>113914496.81</v>
+      </c>
+      <c r="O64" s="1">
+        <v>619207.55803800002</v>
+      </c>
+      <c r="P64" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1381</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1381</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>973</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>973</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="1">
+        <v>13565.809523800001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3342.2453761199999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3965901.0476199999</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3965901.0476199999</v>
+      </c>
+      <c r="I67" s="1">
+        <v>904655.37203700002</v>
+      </c>
+      <c r="J67" s="1">
+        <v>21</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3734178.28571</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.27775313</v>
+      </c>
+      <c r="D68" s="50">
+        <v>1131092925.9000001</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1131092925.9000001</v>
+      </c>
+      <c r="R68" s="1">
+        <v>530085.26731400006</v>
+      </c>
+      <c r="S68" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="1">
+        <v>19394.333333300001</v>
+      </c>
+      <c r="C69" s="1">
+        <v>18127.559690099999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2390461.3333299998</v>
+      </c>
+      <c r="E69" s="1">
+        <v>986048</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2460682</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1972598.6985800001</v>
+      </c>
+      <c r="J69" s="1">
+        <v>20</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>46474</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>46474</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1">
+        <v>344265.95238099998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3564.8374767800001</v>
+      </c>
+      <c r="D71" s="50">
+        <v>226202698.57100001</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>226202698.57100001</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2650373.4536000001</v>
+      </c>
+      <c r="P71" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5839.6190476199999</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5067.6726928199996</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3590625.71429</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2812942.42105</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1852083.8046299999</v>
+      </c>
+      <c r="J72" s="1">
+        <v>19</v>
+      </c>
+      <c r="K72" s="1">
+        <v>10978617</v>
+      </c>
+      <c r="L72" s="1">
+        <v>62005</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="251">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -19655,7 +19655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -23934,8 +23934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26114,22 +26114,22 @@
         <v>48</v>
       </c>
       <c r="B59" s="1">
-        <v>13565.7619048</v>
+        <v>13697.4</v>
       </c>
       <c r="C59" s="1">
-        <v>3342.20031466</v>
+        <v>3371.18936579</v>
       </c>
       <c r="D59" s="1">
-        <v>512153.142857</v>
+        <v>519710.4</v>
       </c>
       <c r="E59" s="1">
-        <v>454651.94736799999</v>
+        <v>459854.38888899999</v>
       </c>
       <c r="F59" s="1">
-        <v>134470.80206799999</v>
+        <v>136281.80964600001</v>
       </c>
       <c r="G59" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="1">
         <v>1058414.5</v>
@@ -26173,13 +26173,13 @@
         <v>63</v>
       </c>
       <c r="B60" s="1">
-        <v>1246543.0476200001</v>
+        <v>1246543</v>
       </c>
       <c r="C60" s="1">
-        <v>0.212958855</v>
+        <v>0</v>
       </c>
       <c r="D60" s="50">
-        <v>138210830.23800001</v>
+        <v>138227359.69999999</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>65</v>
@@ -26209,13 +26209,13 @@
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>138210830.23800001</v>
+        <v>138227359.69999999</v>
       </c>
       <c r="O60" s="1">
-        <v>223230.63961499999</v>
+        <v>215837.50614300001</v>
       </c>
       <c r="P60" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>65</v>
@@ -26232,13 +26232,13 @@
         <v>248</v>
       </c>
       <c r="B61" s="1">
-        <v>1743680.1904800001</v>
+        <v>1743680</v>
       </c>
       <c r="C61" s="1">
-        <v>0.85183542000000001</v>
+        <v>0</v>
       </c>
       <c r="D61" s="50">
-        <v>680440299.76199996</v>
+        <v>681210696.35000002</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>65</v>
@@ -26268,13 +26268,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>680440299.76199996</v>
+        <v>681210696.35000002</v>
       </c>
       <c r="O61" s="1">
-        <v>4077279.0579300001</v>
+        <v>2234208.0879099998</v>
       </c>
       <c r="P61" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>65</v>
@@ -26291,13 +26291,13 @@
         <v>109</v>
       </c>
       <c r="B62" s="1">
-        <v>250302.19047599999</v>
+        <v>250314.95</v>
       </c>
       <c r="C62" s="1">
-        <v>445.781242427</v>
+        <v>453.032060124</v>
       </c>
       <c r="D62" s="50">
-        <v>184293487</v>
+        <v>184669687.30000001</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
@@ -26327,13 +26327,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <v>184293487</v>
+        <v>184669687.30000001</v>
       </c>
       <c r="O62" s="1">
-        <v>2430494.44649</v>
+        <v>1797389.3393000001</v>
       </c>
       <c r="P62" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>65</v>
@@ -26350,13 +26350,13 @@
         <v>137</v>
       </c>
       <c r="B63" s="1">
-        <v>3734178.3333299998</v>
+        <v>3734178</v>
       </c>
       <c r="C63" s="1">
-        <v>1.4907119849999999</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>88616117.809499994</v>
+        <v>88626041.450000003</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>65</v>
@@ -26377,13 +26377,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>88616117.809499994</v>
+        <v>88626041.450000003</v>
       </c>
       <c r="L63" s="1">
-        <v>211558.33252600001</v>
+        <v>211959.24848400001</v>
       </c>
       <c r="M63" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>65</v>
@@ -26409,13 +26409,13 @@
         <v>136</v>
       </c>
       <c r="B64" s="1">
-        <v>3734178.28571</v>
+        <v>3734178</v>
       </c>
       <c r="C64" s="1">
-        <v>1.27775313</v>
+        <v>0</v>
       </c>
       <c r="D64" s="50">
-        <v>113914496.81</v>
+        <v>113958883.3</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
@@ -26445,13 +26445,13 @@
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>113914496.81</v>
+        <v>113958883.3</v>
       </c>
       <c r="O64" s="1">
-        <v>619207.55803800002</v>
+        <v>601012.086946</v>
       </c>
       <c r="P64" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>65</v>
@@ -26465,16 +26465,16 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1">
-        <v>1</v>
+        <v>344364.65</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1381</v>
+        <v>3624.7626029200001</v>
+      </c>
+      <c r="D65" s="50">
+        <v>226476475.25</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>65</v>
@@ -26503,37 +26503,37 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>65</v>
+      <c r="N65" s="1">
+        <v>226476475.25</v>
+      </c>
+      <c r="O65" s="1">
+        <v>2408666.9241399998</v>
       </c>
       <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>1381</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>13697.4</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>3371.2753135900002</v>
       </c>
       <c r="D66" s="1">
-        <v>973</v>
+        <v>3999837.35</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>65</v>
@@ -26544,14 +26544,14 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>65</v>
+      <c r="H66" s="1">
+        <v>3999837.35</v>
+      </c>
+      <c r="I66" s="1">
+        <v>913857.91251000005</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>65</v>
@@ -26571,28 +26571,28 @@
       <c r="P66" s="1">
         <v>0</v>
       </c>
-      <c r="Q66" s="1">
-        <v>973</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0</v>
+      <c r="Q66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B67" s="1">
-        <v>13565.809523800001</v>
+        <v>3734178</v>
       </c>
       <c r="C67" s="1">
-        <v>3342.2453761199999</v>
-      </c>
-      <c r="D67" s="1">
-        <v>3965901.0476199999</v>
+        <v>0</v>
+      </c>
+      <c r="D67" s="50">
+        <v>1131083641.0999999</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>65</v>
@@ -26603,14 +26603,14 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="1">
-        <v>3965901.0476199999</v>
-      </c>
-      <c r="I67" s="1">
-        <v>904655.37203700002</v>
+      <c r="H67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J67" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>65</v>
@@ -26630,46 +26630,46 @@
       <c r="P67" s="1">
         <v>0</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>65</v>
+      <c r="Q67" s="1">
+        <v>1131083641.0999999</v>
+      </c>
+      <c r="R67" s="1">
+        <v>541506.74101600004</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1">
-        <v>3734178.28571</v>
+        <v>19977.2</v>
       </c>
       <c r="C68" s="1">
-        <v>1.27775313</v>
-      </c>
-      <c r="D68" s="50">
-        <v>1131092925.9000001</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>65</v>
+        <v>18382.1771496</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2450978.4500000002</v>
+      </c>
+      <c r="E68" s="1">
+        <v>986048</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2528080.0526299998</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2001272.79846</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>65</v>
@@ -26689,55 +26689,55 @@
       <c r="P68" s="1">
         <v>0</v>
       </c>
-      <c r="Q68" s="1">
-        <v>1131092925.9000001</v>
-      </c>
-      <c r="R68" s="1">
-        <v>530085.26731400006</v>
+      <c r="Q68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S68" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1">
-        <v>19394.333333300001</v>
+        <v>6000</v>
       </c>
       <c r="C69" s="1">
-        <v>18127.559690099999</v>
+        <v>5140.5455741599999</v>
       </c>
       <c r="D69" s="1">
-        <v>2390461.3333299998</v>
-      </c>
-      <c r="E69" s="1">
-        <v>986048</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0</v>
+        <v>3686907</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>2460682</v>
+        <v>2876717</v>
       </c>
       <c r="I69" s="1">
-        <v>1972598.6985800001</v>
+        <v>1882420.0237100001</v>
       </c>
       <c r="J69" s="1">
-        <v>20</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
+      </c>
+      <c r="K69" s="1">
+        <v>10978617</v>
+      </c>
+      <c r="L69" s="1">
+        <v>62005</v>
       </c>
       <c r="M69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>65</v>
@@ -26759,181 +26759,67 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="1">
-        <v>80</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>46474</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>46474</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0</v>
-      </c>
-      <c r="S70" s="1">
-        <v>1</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" s="1">
-        <v>344265.95238099998</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3564.8374767800001</v>
-      </c>
-      <c r="D71" s="50">
-        <v>226202698.57100001</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1">
-        <v>226202698.57100001</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2650373.4536000001</v>
-      </c>
-      <c r="P71" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5839.6190476199999</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5067.6726928199996</v>
-      </c>
-      <c r="D72" s="1">
-        <v>3590625.71429</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2812942.42105</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1852083.8046299999</v>
-      </c>
-      <c r="J72" s="1">
-        <v>19</v>
-      </c>
-      <c r="K72" s="1">
-        <v>10978617</v>
-      </c>
-      <c r="L72" s="1">
-        <v>62005</v>
-      </c>
-      <c r="M72" s="1">
-        <v>2</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/VEE_16/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiaowan Dong\OneDrive\Paper\VEE_16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ssh" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="postmark" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="256">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -785,6 +786,21 @@
   <si>
     <t>Updated</t>
   </si>
+  <si>
+    <t>all files stored under the root directory</t>
+  </si>
+  <si>
+    <t>With MMU Checks Enabled</t>
+  </si>
+  <si>
+    <t>all files stored under /usr directory</t>
+  </si>
+  <si>
+    <t>svaKernel_opt_no_instr_mmuChecks</t>
+  </si>
+  <si>
+    <t>per-API overhead in cycles over 20 rounds (on svaKernel_opt_no_instr with MMU checks)</t>
+  </si>
 </sst>
 </file>
 
@@ -1370,7 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1559,6 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -11676,7 +11693,7 @@
     <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -11890,7 +11907,7 @@
       <c r="R15" s="99"/>
       <c r="S15" s="99"/>
     </row>
-    <row r="16" spans="1:19" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -18553,16 +18570,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="E32:S32"/>
+    <mergeCell ref="E62:S62"/>
+    <mergeCell ref="E79:S79"/>
+    <mergeCell ref="E126:S126"/>
     <mergeCell ref="B194:B195"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="E167:S167"/>
     <mergeCell ref="E186:S186"/>
     <mergeCell ref="E141:S141"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="E32:S32"/>
-    <mergeCell ref="E62:S62"/>
-    <mergeCell ref="E79:S79"/>
-    <mergeCell ref="E126:S126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18593,7 +18610,7 @@
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="64" customFormat="1" ht="63" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:14" s="64" customFormat="1" ht="42" x14ac:dyDescent="0.65">
       <c r="A1" s="79" t="s">
         <v>215</v>
       </c>
@@ -19653,15 +19670,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.796875" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
     <col min="2" max="2" width="18.1328125" customWidth="1"/>
     <col min="3" max="3" width="19.19921875" customWidth="1"/>
     <col min="4" max="4" width="34.53125" customWidth="1"/>
@@ -20134,9 +20151,19 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="80"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="1">
+        <v>47725124.514300004</v>
+      </c>
+      <c r="C30" s="1">
+        <v>984604.14339400001</v>
+      </c>
+      <c r="D30" s="1">
+        <f>B30/B24</f>
+        <v>1.0324124231903791</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="80"/>
@@ -22099,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>30805</v>
+        <v>30927</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>65</v>
@@ -22129,10 +22156,10 @@
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <v>30805</v>
+        <v>30927.7</v>
       </c>
       <c r="O72" s="1">
-        <v>641.48569742400002</v>
+        <v>782.019379555</v>
       </c>
       <c r="P72" s="1">
         <v>20</v>
@@ -22152,13 +22179,13 @@
         <v>49</v>
       </c>
       <c r="B73" s="1">
-        <v>1321.35</v>
+        <v>1294.05</v>
       </c>
       <c r="C73" s="1">
-        <v>22.5194915573</v>
+        <v>9.7184103638400003</v>
       </c>
       <c r="D73" s="50">
-        <v>727559</v>
+        <v>713286</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>65</v>
@@ -22197,10 +22224,10 @@
         <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>727559.35</v>
+        <v>713286.4</v>
       </c>
       <c r="R73" s="1">
-        <v>13910.500933699999</v>
+        <v>8745.3715552899994</v>
       </c>
       <c r="S73" s="1">
         <v>20</v>
@@ -22217,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>782</v>
+        <v>835</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>65</v>
@@ -22229,19 +22256,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>720.52941176499996</v>
+        <v>763.47058823500004</v>
       </c>
       <c r="I74" s="1">
-        <v>112.712605719</v>
+        <v>195.683753766</v>
       </c>
       <c r="J74" s="1">
         <v>17</v>
       </c>
       <c r="K74" s="1">
-        <v>1136.33333333</v>
+        <v>1244</v>
       </c>
       <c r="L74" s="1">
-        <v>164.528281932</v>
+        <v>102.901247158</v>
       </c>
       <c r="M74" s="1">
         <v>3</v>
@@ -22276,7 +22303,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>11109</v>
+        <v>11739</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>65</v>
@@ -22306,10 +22333,10 @@
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <v>11109</v>
+        <v>11739.75</v>
       </c>
       <c r="O75" s="1">
-        <v>147.59369905299999</v>
+        <v>409.12991518600001</v>
       </c>
       <c r="P75" s="1">
         <v>20</v>
@@ -22329,10 +22356,10 @@
         <v>247</v>
       </c>
       <c r="B76" s="1">
-        <v>1412.7</v>
+        <v>1405.85</v>
       </c>
       <c r="C76" s="1">
-        <v>6.9217049922699996</v>
+        <v>5.5432391252800004</v>
       </c>
       <c r="D76" s="1">
         <v>1.8446744071700001E+19</v>
@@ -22377,7 +22404,7 @@
         <v>1.8446744071700001E+19</v>
       </c>
       <c r="R76" s="1">
-        <v>5552.3089251199999</v>
+        <v>2335.0792706000002</v>
       </c>
       <c r="S76" s="1">
         <v>20</v>
@@ -22394,7 +22421,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>65</v>
@@ -22406,10 +22433,10 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>521.9</v>
+        <v>575.65</v>
       </c>
       <c r="I77" s="1">
-        <v>46.0444350601</v>
+        <v>99.031447025700004</v>
       </c>
       <c r="J77" s="1">
         <v>20</v>
@@ -22447,13 +22474,13 @@
         <v>136</v>
       </c>
       <c r="B78" s="1">
-        <v>1411.7</v>
+        <v>1404.85</v>
       </c>
       <c r="C78" s="1">
-        <v>6.9217049922699996</v>
+        <v>5.5432391252800004</v>
       </c>
       <c r="D78" s="1">
-        <v>42620</v>
+        <v>40956</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>65</v>
@@ -22483,10 +22510,10 @@
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <v>42620.65</v>
+        <v>40956.300000000003</v>
       </c>
       <c r="O78" s="1">
-        <v>8160.6649500800004</v>
+        <v>782.35024765100002</v>
       </c>
       <c r="P78" s="1">
         <v>20</v>
@@ -22512,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>10487</v>
+        <v>9989</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>65</v>
@@ -22532,23 +22559,23 @@
       <c r="J79" s="1">
         <v>0</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>65</v>
+      <c r="K79" s="1">
+        <v>9875.0714285699996</v>
+      </c>
+      <c r="L79" s="1">
+        <v>88.182816827699995</v>
       </c>
       <c r="M79" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N79" s="1">
-        <v>10487.25</v>
+        <v>10255.5</v>
       </c>
       <c r="O79" s="1">
-        <v>343.38722675700001</v>
+        <v>327.46895527200002</v>
       </c>
       <c r="P79" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q79" s="1" t="s">
         <v>65</v>
@@ -22571,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>69250</v>
+        <v>69159</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>65</v>
@@ -22601,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <v>69250.649999999994</v>
+        <v>69159.25</v>
       </c>
       <c r="O80" s="1">
-        <v>560.82281292799996</v>
+        <v>601.12593314499998</v>
       </c>
       <c r="P80" s="1">
         <v>20</v>
@@ -22630,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>65</v>
@@ -22651,10 +22678,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>1351.65</v>
+        <v>1348.35</v>
       </c>
       <c r="L81" s="1">
-        <v>34.587967560999999</v>
+        <v>31.842228251200002</v>
       </c>
       <c r="M81" s="1">
         <v>20</v>
@@ -22683,13 +22710,13 @@
         <v>48</v>
       </c>
       <c r="B82" s="1">
-        <v>897.3</v>
+        <v>889.15</v>
       </c>
       <c r="C82" s="1">
-        <v>7.75951029383</v>
+        <v>1.93067345763</v>
       </c>
       <c r="D82" s="1">
-        <v>27887</v>
+        <v>26708</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>65</v>
@@ -22719,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <v>27887.3</v>
+        <v>26708.3</v>
       </c>
       <c r="O82" s="1">
-        <v>6841.57025178</v>
+        <v>540.86792288000004</v>
       </c>
       <c r="P82" s="1">
         <v>20</v>
@@ -22748,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="50">
-        <v>175473</v>
+        <v>175931</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>65</v>
@@ -22787,10 +22814,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <v>175473.65</v>
+        <v>175931.6</v>
       </c>
       <c r="R83" s="1">
-        <v>1037.2821349599999</v>
+        <v>897.33201213400002</v>
       </c>
       <c r="S83" s="1">
         <v>20</v>
@@ -22807,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>65</v>
@@ -22819,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <v>261.8</v>
+        <v>241.15</v>
       </c>
       <c r="I84" s="1">
-        <v>9.6</v>
+        <v>78.104593334800001</v>
       </c>
       <c r="J84" s="1">
         <v>20</v>
@@ -22866,7 +22893,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="50">
-        <v>118928</v>
+        <v>118789</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>65</v>
@@ -22905,10 +22932,10 @@
         <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <v>118928.65</v>
+        <v>118789.85</v>
       </c>
       <c r="R85" s="1">
-        <v>1238.3257356199999</v>
+        <v>574.656704042</v>
       </c>
       <c r="S85" s="1">
         <v>20</v>
@@ -22919,13 +22946,13 @@
         <v>137</v>
       </c>
       <c r="B86" s="1">
-        <v>1412.7</v>
+        <v>1405.85</v>
       </c>
       <c r="C86" s="1">
-        <v>6.9217049922699996</v>
+        <v>5.5432391252800004</v>
       </c>
       <c r="D86" s="1">
-        <v>36718</v>
+        <v>37056</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>65</v>
@@ -22955,10 +22982,10 @@
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <v>36718.300000000003</v>
+        <v>37056.75</v>
       </c>
       <c r="O86" s="1">
-        <v>7633.3895819600002</v>
+        <v>9033.5079613300004</v>
       </c>
       <c r="P86" s="1">
         <v>20</v>
@@ -22978,13 +23005,13 @@
         <v>248</v>
       </c>
       <c r="B87" s="1">
-        <v>1961.1</v>
+        <v>1943.45</v>
       </c>
       <c r="C87" s="1">
-        <v>13.3262898062</v>
+        <v>7.7554819321600004</v>
       </c>
       <c r="D87" s="50">
-        <v>1322101</v>
+        <v>1304646</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>65</v>
@@ -23023,10 +23050,10 @@
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <v>1322101.1499999999</v>
+        <v>1304646.1499999999</v>
       </c>
       <c r="R87" s="1">
-        <v>51804.090760599996</v>
+        <v>55799.791561700004</v>
       </c>
       <c r="S87" s="1">
         <v>20</v>
@@ -23043,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>65</v>
@@ -23055,10 +23082,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>148.65</v>
+        <v>136.9</v>
       </c>
       <c r="I88" s="1">
-        <v>12.121365434599999</v>
+        <v>2.3430749027700002</v>
       </c>
       <c r="J88" s="1">
         <v>20</v>
@@ -23102,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>836</v>
+        <v>913</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>65</v>
@@ -23114,19 +23141,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <v>761.22222222200003</v>
+        <v>902.5</v>
       </c>
       <c r="I89" s="1">
-        <v>106.792402745</v>
+        <v>88.779533427199993</v>
       </c>
       <c r="J89" s="1">
         <v>18</v>
       </c>
       <c r="K89" s="1">
-        <v>1511.5</v>
+        <v>1015.5</v>
       </c>
       <c r="L89" s="1">
-        <v>311.5</v>
+        <v>6.5</v>
       </c>
       <c r="M89" s="1">
         <v>2</v>
@@ -23161,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>56201</v>
+        <v>56680</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>65</v>
@@ -23191,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <v>56201.1</v>
+        <v>56680.800000000003</v>
       </c>
       <c r="O90" s="1">
-        <v>528.71484753100003</v>
+        <v>915.89358552199997</v>
       </c>
       <c r="P90" s="1">
         <v>20</v>
@@ -23214,13 +23241,13 @@
         <v>56</v>
       </c>
       <c r="B91" s="1">
-        <v>364.65</v>
+        <v>361.1</v>
       </c>
       <c r="C91" s="1">
-        <v>6.8137728168800002</v>
+        <v>4.5044422518199996</v>
       </c>
       <c r="D91" s="1">
-        <v>66813</v>
+        <v>61163</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>65</v>
@@ -23250,19 +23277,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <v>58434.944444399996</v>
+        <v>55095.111111099999</v>
       </c>
       <c r="O91" s="1">
-        <v>19925.1860175</v>
+        <v>21414.543910100001</v>
       </c>
       <c r="P91" s="1">
         <v>18</v>
       </c>
       <c r="Q91" s="1">
-        <v>142222</v>
+        <v>115779.5</v>
       </c>
       <c r="R91" s="1">
-        <v>20697</v>
+        <v>3901.5</v>
       </c>
       <c r="S91" s="1">
         <v>2</v>
@@ -23279,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E92" s="1">
-        <v>81</v>
+        <v>54.461538461499998</v>
       </c>
       <c r="F92" s="1">
-        <v>4.2426406871199998</v>
+        <v>13.2177932792</v>
       </c>
       <c r="G92" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1">
-        <v>123.47058823499999</v>
+        <v>121.857142857</v>
       </c>
       <c r="I92" s="1">
-        <v>11.8327444336</v>
+        <v>1.3552618543599999</v>
       </c>
       <c r="J92" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>65</v>
@@ -23338,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>65</v>
@@ -23350,10 +23377,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <v>431.8</v>
+        <v>449.15</v>
       </c>
       <c r="I93" s="1">
-        <v>93.546031449799997</v>
+        <v>111.024895857</v>
       </c>
       <c r="J93" s="1">
         <v>20</v>
@@ -23397,25 +23424,25 @@
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E94" s="1">
-        <v>23.15</v>
+        <v>50.684210526299999</v>
       </c>
       <c r="F94" s="1">
-        <v>9.94623044173</v>
+        <v>26.5112739307</v>
       </c>
       <c r="G94" s="1">
-        <v>20</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="H94" s="1">
+        <v>296</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>65</v>
@@ -23456,25 +23483,25 @@
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>192</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
+      </c>
+      <c r="E95" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>10.8</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H95" s="1">
-        <v>192.2</v>
+        <v>158.4</v>
       </c>
       <c r="I95" s="1">
-        <v>74.8736268655</v>
+        <v>77.9476747569</v>
       </c>
       <c r="J95" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>65</v>
@@ -23515,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>55493</v>
+        <v>54831</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>65</v>
@@ -23545,10 +23572,10 @@
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <v>55493.15</v>
+        <v>54831.25</v>
       </c>
       <c r="O96" s="1">
-        <v>599.35042128999999</v>
+        <v>280.73241262800002</v>
       </c>
       <c r="P96" s="1">
         <v>20</v>
@@ -23574,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>26024</v>
+        <v>26264</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>65</v>
@@ -23604,10 +23631,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <v>26024.2</v>
+        <v>26264.95</v>
       </c>
       <c r="O97" s="1">
-        <v>247.91280725300001</v>
+        <v>307.42600329200002</v>
       </c>
       <c r="P97" s="1">
         <v>20</v>
@@ -23627,13 +23654,13 @@
         <v>249</v>
       </c>
       <c r="B98" s="1">
-        <v>896.3</v>
+        <v>1049.95</v>
       </c>
       <c r="C98" s="1">
-        <v>7.75951029383</v>
+        <v>2.26881026091</v>
       </c>
       <c r="D98" s="50">
-        <v>222184</v>
+        <v>299450</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>65</v>
@@ -23672,10 +23699,10 @@
         <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>222184.15</v>
+        <v>299450.2</v>
       </c>
       <c r="R98" s="1">
-        <v>1640.1341492399999</v>
+        <v>9576.1065971499993</v>
       </c>
       <c r="S98" s="1">
         <v>20</v>
@@ -23692,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>74731</v>
+        <v>73751</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>65</v>
@@ -23722,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <v>74731.649999999994</v>
+        <v>73751.3</v>
       </c>
       <c r="O99" s="1">
-        <v>1210.2082165899999</v>
+        <v>823.78207676500006</v>
       </c>
       <c r="P99" s="1">
         <v>20</v>
@@ -23751,7 +23778,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>10030</v>
+        <v>9995</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>65</v>
@@ -23772,22 +23799,22 @@
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>9908.8888888900001</v>
+        <v>9874</v>
       </c>
       <c r="L100" s="1">
-        <v>54.884615218199997</v>
+        <v>104.642247682</v>
       </c>
       <c r="M100" s="1">
+        <v>11</v>
+      </c>
+      <c r="N100" s="1">
+        <v>10144</v>
+      </c>
+      <c r="O100" s="1">
+        <v>118.014123449</v>
+      </c>
+      <c r="P100" s="1">
         <v>9</v>
-      </c>
-      <c r="N100" s="1">
-        <v>10130.363636399999</v>
-      </c>
-      <c r="O100" s="1">
-        <v>93.277954842</v>
-      </c>
-      <c r="P100" s="1">
-        <v>11</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>65</v>
@@ -23810,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>7247</v>
+        <v>6962</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>65</v>
@@ -23831,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>7247.7</v>
+        <v>6962.55</v>
       </c>
       <c r="L101" s="1">
-        <v>134.109693908</v>
+        <v>203.880718804</v>
       </c>
       <c r="M101" s="1">
         <v>20</v>
@@ -23863,13 +23890,13 @@
         <v>61</v>
       </c>
       <c r="B102" s="1">
-        <v>338.6</v>
+        <v>337.35</v>
       </c>
       <c r="C102" s="1">
-        <v>4.6840153714500001</v>
+        <v>2.9201883500900001</v>
       </c>
       <c r="D102" s="50">
-        <v>199179</v>
+        <v>203303</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>65</v>
@@ -23908,14 +23935,2478 @@
         <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <v>199179.6</v>
+        <v>203303.35</v>
       </c>
       <c r="R102" s="1">
-        <v>2532.9159559700001</v>
+        <v>17850.553333899999</v>
       </c>
       <c r="S102" s="1">
         <v>20</v>
       </c>
+    </row>
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="1">
+        <v>120</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>29907</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>29907.55</v>
+      </c>
+      <c r="O106" s="1">
+        <v>515.94839616000002</v>
+      </c>
+      <c r="P106" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A107" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1315.9</v>
+      </c>
+      <c r="C107" s="1">
+        <v>22.225885809099999</v>
+      </c>
+      <c r="D107" s="1">
+        <v>729643</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>729643.75</v>
+      </c>
+      <c r="R107" s="1">
+        <v>13181.5310563</v>
+      </c>
+      <c r="S107" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5924</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>606.10526315799996</v>
+      </c>
+      <c r="I108" s="1">
+        <v>125.334455605</v>
+      </c>
+      <c r="J108" s="1">
+        <v>19</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>106981</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="1">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>11743</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>11743.45</v>
+      </c>
+      <c r="O109" s="1">
+        <v>361.399982706</v>
+      </c>
+      <c r="P109" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1408.4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7.7871689335700003</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.8446744071700001E+19</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>1.8446744071700001E+19</v>
+      </c>
+      <c r="R110" s="1">
+        <v>2098.5755168699998</v>
+      </c>
+      <c r="S110" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>422</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>422</v>
+      </c>
+      <c r="I111" s="1">
+        <v>21.5847168154</v>
+      </c>
+      <c r="J111" s="1">
+        <v>20</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1407.4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>7.7871689335700003</v>
+      </c>
+      <c r="D112" s="1">
+        <v>49068</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>43874.842105299998</v>
+      </c>
+      <c r="O112" s="1">
+        <v>12730.305438400001</v>
+      </c>
+      <c r="P112" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>147752</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>10160</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>9899</v>
+      </c>
+      <c r="L113" s="1">
+        <v>71.288147682499996</v>
+      </c>
+      <c r="M113" s="1">
+        <v>5</v>
+      </c>
+      <c r="N113" s="1">
+        <v>10248.1333333</v>
+      </c>
+      <c r="O113" s="1">
+        <v>238.94319176100001</v>
+      </c>
+      <c r="P113" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="1">
+        <v>129</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>68765</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>68765.149999999994</v>
+      </c>
+      <c r="O114" s="1">
+        <v>541.14104215099997</v>
+      </c>
+      <c r="P114" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1269</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1269.95</v>
+      </c>
+      <c r="L115" s="1">
+        <v>34.745467330300002</v>
+      </c>
+      <c r="M115" s="1">
+        <v>20</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="1">
+        <v>895.15</v>
+      </c>
+      <c r="C116" s="1">
+        <v>7.1573388909600002</v>
+      </c>
+      <c r="D116" s="1">
+        <v>27446</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>27446.799999999999</v>
+      </c>
+      <c r="O116" s="1">
+        <v>2998.10135919</v>
+      </c>
+      <c r="P116" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="1">
+        <v>125</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>176739</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>176739.7</v>
+      </c>
+      <c r="R117" s="1">
+        <v>975.73260169000002</v>
+      </c>
+      <c r="S117" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>205</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>205.45</v>
+      </c>
+      <c r="I118" s="1">
+        <v>13.525808663399999</v>
+      </c>
+      <c r="J118" s="1">
+        <v>20</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="1">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>118207</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>118207.55</v>
+      </c>
+      <c r="R119" s="1">
+        <v>614.03049395000005</v>
+      </c>
+      <c r="S119" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1408.4</v>
+      </c>
+      <c r="C120" s="1">
+        <v>7.7871689335700003</v>
+      </c>
+      <c r="D120" s="1">
+        <v>34154</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>34154.800000000003</v>
+      </c>
+      <c r="O120" s="1">
+        <v>482.8610152</v>
+      </c>
+      <c r="P120" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1949.85</v>
+      </c>
+      <c r="C121" s="1">
+        <v>14.602311460899999</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1296706</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P121" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>1296706.3999999999</v>
+      </c>
+      <c r="R121" s="1">
+        <v>43178.930961099999</v>
+      </c>
+      <c r="S121" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>136</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>136.9</v>
+      </c>
+      <c r="I122" s="1">
+        <v>2.14242852856</v>
+      </c>
+      <c r="J122" s="1">
+        <v>20</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P122" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>987</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>935.83333333300004</v>
+      </c>
+      <c r="I123" s="1">
+        <v>78.370735751400005</v>
+      </c>
+      <c r="J123" s="1">
+        <v>12</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1063.875</v>
+      </c>
+      <c r="L123" s="1">
+        <v>33.164127834200002</v>
+      </c>
+      <c r="M123" s="1">
+        <v>8</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P123" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="1">
+        <v>80</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>55830</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>55830.05</v>
+      </c>
+      <c r="O124" s="1">
+        <v>500.32414243199997</v>
+      </c>
+      <c r="P124" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="1">
+        <v>363.1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>6.1229078059399997</v>
+      </c>
+      <c r="D125" s="1">
+        <v>66460</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>49994.764705900001</v>
+      </c>
+      <c r="O125" s="1">
+        <v>20383.560153499999</v>
+      </c>
+      <c r="P125" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>159763.33333299999</v>
+      </c>
+      <c r="R125" s="1">
+        <v>34279.748193699998</v>
+      </c>
+      <c r="S125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>57</v>
+      </c>
+      <c r="E126" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="F126" s="1">
+        <v>12.140428328500001</v>
+      </c>
+      <c r="G126" s="1">
+        <v>20</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P126" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>479</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>479.8</v>
+      </c>
+      <c r="I127" s="1">
+        <v>101.805500834</v>
+      </c>
+      <c r="J127" s="1">
+        <v>20</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P127" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>65</v>
+      </c>
+      <c r="E128" s="1">
+        <v>63.210526315800003</v>
+      </c>
+      <c r="F128" s="1">
+        <v>15.9590889707</v>
+      </c>
+      <c r="G128" s="1">
+        <v>19</v>
+      </c>
+      <c r="H128" s="1">
+        <v>118</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>150</v>
+      </c>
+      <c r="E129" s="1">
+        <v>87.461538461499998</v>
+      </c>
+      <c r="F129" s="1">
+        <v>10.881285166</v>
+      </c>
+      <c r="G129" s="1">
+        <v>13</v>
+      </c>
+      <c r="H129" s="1">
+        <v>268.57142857100001</v>
+      </c>
+      <c r="I129" s="1">
+        <v>17.887402932600001</v>
+      </c>
+      <c r="J129" s="1">
+        <v>7</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="1">
+        <v>33</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>55059</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>55059.75</v>
+      </c>
+      <c r="O130" s="1">
+        <v>525.24355065099996</v>
+      </c>
+      <c r="P130" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="1">
+        <v>20</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>26147</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>26147.4</v>
+      </c>
+      <c r="O131" s="1">
+        <v>219.27890915500001</v>
+      </c>
+      <c r="P131" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1055.9000000000001</v>
+      </c>
+      <c r="C132" s="1">
+        <v>7.4020267494800001</v>
+      </c>
+      <c r="D132" s="1">
+        <v>298692</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>298692.75</v>
+      </c>
+      <c r="R132" s="1">
+        <v>2305.1450252599998</v>
+      </c>
+      <c r="S132" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" s="1">
+        <v>65</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>73528</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>73528.600000000006</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1405.5642781500001</v>
+      </c>
+      <c r="P133" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="1">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>10064</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>9867.4444444399996</v>
+      </c>
+      <c r="L134" s="1">
+        <v>58.997384332099998</v>
+      </c>
+      <c r="M134" s="1">
+        <v>9</v>
+      </c>
+      <c r="N134" s="1">
+        <v>10225.909090900001</v>
+      </c>
+      <c r="O134" s="1">
+        <v>103.692249684</v>
+      </c>
+      <c r="P134" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>7217</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>7217.7</v>
+      </c>
+      <c r="L135" s="1">
+        <v>164.46887243500001</v>
+      </c>
+      <c r="M135" s="1">
+        <v>20</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136" s="1">
+        <v>338.2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4.2142615011400002</v>
+      </c>
+      <c r="D136" s="1">
+        <v>199891</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P136" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>199891.25</v>
+      </c>
+      <c r="R136" s="1">
+        <v>1917.1534334800001</v>
+      </c>
+      <c r="S136" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -23932,15 +26423,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.9296875" customWidth="1"/>
+    <col min="1" max="1" width="32.53125" customWidth="1"/>
     <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.9296875" customWidth="1"/>
@@ -24144,10 +26635,29 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.43643578047199999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27233042301</v>
+      </c>
+      <c r="E10" s="1">
+        <v>583389311.06200004</v>
+      </c>
+      <c r="F10" s="1">
+        <f>B10/B4</f>
+        <v>1.095890410958904</v>
+      </c>
+      <c r="G10" s="1">
+        <f>D10/D4</f>
+        <v>1.0975467407464274</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="83"/>
@@ -24334,12 +26844,29 @@
       <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.2380952380999997</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.52596957224700003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>31421377902.400002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>474756547.47500002</v>
+      </c>
+      <c r="F19" s="1">
+        <f>B19/B13</f>
+        <v>1.037988229</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D19/D13</f>
+        <v>1.0410808975418018</v>
+      </c>
       <c r="H19" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.65">
@@ -26114,31 +28641,31 @@
         <v>48</v>
       </c>
       <c r="B59" s="1">
-        <v>13697.4</v>
+        <v>12939.2</v>
       </c>
       <c r="C59" s="1">
-        <v>3371.18936579</v>
+        <v>2392.6902975500002</v>
       </c>
       <c r="D59" s="1">
-        <v>519710.4</v>
+        <v>468755.65</v>
       </c>
       <c r="E59" s="1">
-        <v>459854.38888899999</v>
+        <v>468755.65</v>
       </c>
       <c r="F59" s="1">
-        <v>136281.80964600001</v>
+        <v>154671.916394</v>
       </c>
       <c r="G59" s="1">
-        <v>18</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1058414.5</v>
-      </c>
-      <c r="I59" s="1">
-        <v>6954.5</v>
+        <v>20</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>65</v>
@@ -26179,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="50">
-        <v>138227359.69999999</v>
+        <v>137929827.69999999</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>65</v>
@@ -26209,10 +28736,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>138227359.69999999</v>
+        <v>137929827.69999999</v>
       </c>
       <c r="O60" s="1">
-        <v>215837.50614300001</v>
+        <v>295237.70695999998</v>
       </c>
       <c r="P60" s="1">
         <v>20</v>
@@ -26238,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="50">
-        <v>681210696.35000002</v>
+        <v>689639546.5</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>65</v>
@@ -26268,10 +28795,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>681210696.35000002</v>
+        <v>689639546.5</v>
       </c>
       <c r="O61" s="1">
-        <v>2234208.0879099998</v>
+        <v>2108999.73465</v>
       </c>
       <c r="P61" s="1">
         <v>20</v>
@@ -26291,13 +28818,13 @@
         <v>109</v>
       </c>
       <c r="B62" s="1">
-        <v>250314.95</v>
+        <v>250219.95</v>
       </c>
       <c r="C62" s="1">
-        <v>453.032060124</v>
+        <v>294.30961163400002</v>
       </c>
       <c r="D62" s="50">
-        <v>184669687.30000001</v>
+        <v>179123191.94999999</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
@@ -26327,10 +28854,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <v>184669687.30000001</v>
+        <v>179123191.94999999</v>
       </c>
       <c r="O62" s="1">
-        <v>1797389.3393000001</v>
+        <v>1752094.0046900001</v>
       </c>
       <c r="P62" s="1">
         <v>20</v>
@@ -26356,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>88626041.450000003</v>
+        <v>92620557.950000003</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>65</v>
@@ -26377,22 +28904,22 @@
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>88626041.450000003</v>
+        <v>91956353.473700002</v>
       </c>
       <c r="L63" s="1">
-        <v>211959.24848400001</v>
+        <v>201216.37964900001</v>
       </c>
       <c r="M63" s="1">
-        <v>20</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="N63" s="1">
+        <v>105240443</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>65</v>
@@ -26415,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="50">
-        <v>113958883.3</v>
+        <v>117125877.40000001</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
@@ -26445,10 +28972,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>113958883.3</v>
+        <v>117125877.40000001</v>
       </c>
       <c r="O64" s="1">
-        <v>601012.086946</v>
+        <v>440082.55138899997</v>
       </c>
       <c r="P64" s="1">
         <v>20</v>
@@ -26468,13 +28995,13 @@
         <v>156</v>
       </c>
       <c r="B65" s="1">
-        <v>344364.65</v>
+        <v>343604.1</v>
       </c>
       <c r="C65" s="1">
-        <v>3624.7626029200001</v>
+        <v>2354.6221119299998</v>
       </c>
       <c r="D65" s="50">
-        <v>226476475.25</v>
+        <v>224634094.19999999</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>65</v>
@@ -26504,10 +29031,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <v>226476475.25</v>
+        <v>224634094.19999999</v>
       </c>
       <c r="O65" s="1">
-        <v>2408666.9241399998</v>
+        <v>1454302.3509</v>
       </c>
       <c r="P65" s="1">
         <v>20</v>
@@ -26527,13 +29054,13 @@
         <v>249</v>
       </c>
       <c r="B66" s="1">
-        <v>13697.4</v>
+        <v>760114.7</v>
       </c>
       <c r="C66" s="1">
-        <v>3371.2753135900002</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3999837.35</v>
+        <v>2415.3025711099999</v>
+      </c>
+      <c r="D66" s="50">
+        <v>202262307.34999999</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>65</v>
@@ -26544,32 +29071,32 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="1">
-        <v>3999837.35</v>
-      </c>
-      <c r="I66" s="1">
-        <v>913857.91251000005</v>
+      <c r="H66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>202262307.34999999</v>
+      </c>
+      <c r="O66" s="1">
+        <v>676135.98852999997</v>
+      </c>
+      <c r="P66" s="1">
         <v>20</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>65</v>
@@ -26592,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="50">
-        <v>1131083641.0999999</v>
+        <v>934353888.95000005</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>65</v>
@@ -26621,23 +29148,23 @@
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>65</v>
+      <c r="N67" s="1">
+        <v>934353888.95000005</v>
+      </c>
+      <c r="O67" s="1">
+        <v>120506.843435</v>
       </c>
       <c r="P67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>1131083641.0999999</v>
-      </c>
-      <c r="R67" s="1">
-        <v>541506.74101600004</v>
+        <v>20</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S67" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
@@ -26645,31 +29172,31 @@
         <v>56</v>
       </c>
       <c r="B68" s="1">
-        <v>19977.2</v>
+        <v>15595.55</v>
       </c>
       <c r="C68" s="1">
-        <v>18382.1771496</v>
+        <v>12596.819548900001</v>
       </c>
       <c r="D68" s="1">
-        <v>2450978.4500000002</v>
-      </c>
-      <c r="E68" s="1">
-        <v>986048</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
+        <v>1957076.75</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>2528080.0526299998</v>
+        <v>1957076.75</v>
       </c>
       <c r="I68" s="1">
-        <v>2001272.79846</v>
+        <v>1116785.43059</v>
       </c>
       <c r="J68" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>65</v>
@@ -26704,13 +29231,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="1">
-        <v>6000</v>
+        <v>4788.2</v>
       </c>
       <c r="C69" s="1">
-        <v>5140.5455741599999</v>
+        <v>3375.3461392899999</v>
       </c>
       <c r="D69" s="1">
-        <v>3686907</v>
+        <v>3032572.95</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>65</v>
@@ -26722,22 +29249,22 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>2876717</v>
+        <v>3032572.95</v>
       </c>
       <c r="I69" s="1">
-        <v>1882420.0237100001</v>
+        <v>1976689.96789</v>
       </c>
       <c r="J69" s="1">
-        <v>18</v>
-      </c>
-      <c r="K69" s="1">
-        <v>10978617</v>
-      </c>
-      <c r="L69" s="1">
-        <v>62005</v>
+        <v>20</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>65</v>
@@ -26762,7 +29289,10 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1">
+        <f>SUM(D59:D69)</f>
+        <v>2583147697.3499999</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -26821,6 +29351,2261 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
+    <row r="73" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="H73" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="K73" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="L73" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="M73" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="N73" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="O73" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P73" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q73" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="R73" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="S73" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="1">
+        <v>11446.5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2344.4382802700002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>417891.15</v>
+      </c>
+      <c r="E74" s="1">
+        <v>417891.15</v>
+      </c>
+      <c r="F74" s="1">
+        <v>156441.90516200001</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1246543</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>119883391.34999999</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>119883391.34999999</v>
+      </c>
+      <c r="O75" s="1">
+        <v>204506.32689900001</v>
+      </c>
+      <c r="P75" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1743680</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>677913482.89999998</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>677913482.89999998</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2948036.68995</v>
+      </c>
+      <c r="P76" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1">
+        <v>250174.55</v>
+      </c>
+      <c r="C77" s="1">
+        <v>266.90325494500001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>188427424.84999999</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>188427424.84999999</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2484140.25911</v>
+      </c>
+      <c r="P77" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>91249714.25</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>91249714.25</v>
+      </c>
+      <c r="L78" s="1">
+        <v>208697.41265099999</v>
+      </c>
+      <c r="M78" s="1">
+        <v>20</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>106626277.45</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>106626277.45</v>
+      </c>
+      <c r="O79" s="1">
+        <v>215458.13572399999</v>
+      </c>
+      <c r="P79" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1">
+        <v>343244.79999999999</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2130.6245938699999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>216148094.44999999</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>216148094.44999999</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1524213.99707</v>
+      </c>
+      <c r="P80" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="1">
+        <v>758626.6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2362.89065342</v>
+      </c>
+      <c r="D81" s="1">
+        <v>201879228.75</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>201879228.75</v>
+      </c>
+      <c r="O81" s="1">
+        <v>673345.74561700004</v>
+      </c>
+      <c r="P81" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>934433538.14999998</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>934433538.14999998</v>
+      </c>
+      <c r="O82" s="1">
+        <v>128965.70305</v>
+      </c>
+      <c r="P82" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="1">
+        <v>14426.55</v>
+      </c>
+      <c r="C83" s="1">
+        <v>12386.131359200001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1636651.4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1636651.4</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1073590.9397400001</v>
+      </c>
+      <c r="J83" s="1">
+        <v>20</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4334</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3058.3712004899999</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2730537.1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2730537.1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1794921.4398000001</v>
+      </c>
+      <c r="J84" s="1">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1">
+        <f>SUM(D74:D84)</f>
+        <v>2541346231.8000002</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I88" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="J88" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="K88" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="L88" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="M88" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="N88" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="O88" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P88" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q88" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="R88" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="S88" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="1">
+        <v>12874.1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2179.5713546500001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>457640.9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>457640.9</v>
+      </c>
+      <c r="F89" s="1">
+        <v>142934.85964800001</v>
+      </c>
+      <c r="G89" s="1">
+        <v>20</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1246543</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>137879557.90000001</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>137879557.90000001</v>
+      </c>
+      <c r="O90" s="1">
+        <v>242363.47082399999</v>
+      </c>
+      <c r="P90" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1743680</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>680510369.79999995</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>680510369.79999995</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2552651.15319</v>
+      </c>
+      <c r="P91" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A92" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="1">
+        <v>250199.15</v>
+      </c>
+      <c r="C92" s="1">
+        <v>268.14031308300002</v>
+      </c>
+      <c r="D92" s="1">
+        <v>185266449.09999999</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>185266449.09999999</v>
+      </c>
+      <c r="O92" s="1">
+        <v>3425119.9795200001</v>
+      </c>
+      <c r="P92" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>91188450.200000003</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>91188450.200000003</v>
+      </c>
+      <c r="L93" s="1">
+        <v>157836.24085999999</v>
+      </c>
+      <c r="M93" s="1">
+        <v>20</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A94" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>122898752.40000001</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>122898752.40000001</v>
+      </c>
+      <c r="O94" s="1">
+        <v>597196.00190399995</v>
+      </c>
+      <c r="P94" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A95" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="1">
+        <v>343437.95</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2145.5323925500002</v>
+      </c>
+      <c r="D95" s="1">
+        <v>218979858.84999999</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>218979858.84999999</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1990304.1872400001</v>
+      </c>
+      <c r="P95" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="1">
+        <v>760045.7</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2193.3061368600002</v>
+      </c>
+      <c r="D96" s="1">
+        <v>202273047.34999999</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>202273047.34999999</v>
+      </c>
+      <c r="O96" s="1">
+        <v>627517.55735200003</v>
+      </c>
+      <c r="P96" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>934318609.25</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>934318609.25</v>
+      </c>
+      <c r="O97" s="1">
+        <v>79770.816596000004</v>
+      </c>
+      <c r="P97" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="1">
+        <v>15109.15</v>
+      </c>
+      <c r="C98" s="1">
+        <v>11412.752154</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1735275.65</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1735275.65</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1012445.73864</v>
+      </c>
+      <c r="J98" s="1">
+        <v>20</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A99" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4572.8999999999996</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3108.7977402800002</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2891925.8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2891925.8</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1832261.8129199999</v>
+      </c>
+      <c r="J99" s="1">
+        <v>20</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="104" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A104" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="H104" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="I104" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="J104" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="K104" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="L104" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="M104" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="N104" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="O104" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P104" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q104" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="R104" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="S104" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="1">
+        <v>12094.15</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3313.8888073500002</v>
+      </c>
+      <c r="D105" s="1">
+        <v>459055.3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>390753.61111100001</v>
+      </c>
+      <c r="F105" s="1">
+        <v>85515.699784800003</v>
+      </c>
+      <c r="G105" s="1">
+        <v>18</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1073770.5</v>
+      </c>
+      <c r="I105" s="1">
+        <v>66074.5</v>
+      </c>
+      <c r="J105" s="1">
+        <v>2</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1246543</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>120176666.65000001</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>120176666.65000001</v>
+      </c>
+      <c r="O106" s="1">
+        <v>247956.30541100001</v>
+      </c>
+      <c r="P106" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1743680</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>679309501.95000005</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>679309501.95000005</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2543617.4725899999</v>
+      </c>
+      <c r="P107" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1">
+        <v>250262.2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>435.20415898700003</v>
+      </c>
+      <c r="D108" s="1">
+        <v>188424812.30000001</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>188424812.30000001</v>
+      </c>
+      <c r="O108" s="1">
+        <v>3321088.0290799998</v>
+      </c>
+      <c r="P108" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>91757137.650000006</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>91757137.650000006</v>
+      </c>
+      <c r="L109" s="1">
+        <v>265556.59890500002</v>
+      </c>
+      <c r="M109" s="1">
+        <v>20</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A110" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>116656020</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>116656020</v>
+      </c>
+      <c r="O110" s="1">
+        <v>464048.45373399998</v>
+      </c>
+      <c r="P110" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A111" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="1">
+        <v>343945.5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3483.7597864999998</v>
+      </c>
+      <c r="D111" s="1">
+        <v>221281446.34999999</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>221281446.34999999</v>
+      </c>
+      <c r="O111" s="1">
+        <v>2122380.6397699998</v>
+      </c>
+      <c r="P111" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="1">
+        <v>759272.55</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3339.4409782900002</v>
+      </c>
+      <c r="D112" s="1">
+        <v>202060066.59999999</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>202060066.59999999</v>
+      </c>
+      <c r="O112" s="1">
+        <v>968248.44872600003</v>
+      </c>
+      <c r="P112" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>934588721.35000002</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>934588721.35000002</v>
+      </c>
+      <c r="O113" s="1">
+        <v>139610.210276</v>
+      </c>
+      <c r="P113" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="1">
+        <v>17525.05</v>
+      </c>
+      <c r="C114" s="1">
+        <v>17819.439998099999</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1952105.6</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1952105.6</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1596201.4290400001</v>
+      </c>
+      <c r="J114" s="1">
+        <v>20</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5167.8</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4874.7947608100003</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3249182.7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2359617.2777800001</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1032426.9185199999</v>
+      </c>
+      <c r="J115" s="1">
+        <v>18</v>
+      </c>
+      <c r="K115" s="1">
+        <v>11255271.5</v>
+      </c>
+      <c r="L115" s="1">
+        <v>843484.5</v>
+      </c>
+      <c r="M115" s="1">
+        <v>2</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -22,7 +22,6 @@
     <sheet name="postmark" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="252">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -643,18 +642,6 @@
     <t>svaKernel_opt_cfi</t>
   </si>
   <si>
-    <t>per-scp latency avg over 20 rounds</t>
-  </si>
-  <si>
-    <t>per-scp latency std dev</t>
-  </si>
-  <si>
-    <t>Measured the same period where scp measure bandwitdth (bytes per second)</t>
-  </si>
-  <si>
-    <t>normalied to the baseline</t>
-  </si>
-  <si>
     <t>Bandwidth (measured on the client)</t>
   </si>
   <si>
@@ -662,9 +649,6 @@
   </si>
   <si>
     <t>per-API overhead in cycles over 20 rounds (on svaKernel_opt_no_instr)</t>
-  </si>
-  <si>
-    <t>latency (measured on the client) cycles</t>
   </si>
   <si>
     <t>latency (measured on the server) cycles</t>
@@ -801,6 +785,9 @@
   <si>
     <t>per-API overhead in cycles over 20 rounds (on svaKernel_opt_no_instr with MMU checks)</t>
   </si>
+  <si>
+    <t>svaKernel_opt_mmuChecks</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +796,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1001,20 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1386,7 +1387,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1527,6 +1528,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -8374,11 +8380,11 @@
       <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -8807,11 +8813,11 @@
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -9240,11 +9246,11 @@
       <c r="D39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -9690,14 +9696,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="88"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
@@ -10024,14 +10030,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91" t="s">
+      <c r="C21" s="93"/>
+      <c r="D21" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="88"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
@@ -10396,20 +10402,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
@@ -11007,20 +11013,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="95" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
@@ -11889,23 +11895,23 @@
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
     </row>
     <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -12743,23 +12749,23 @@
       <c r="A32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
     </row>
     <row r="33" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -13769,23 +13775,23 @@
       <c r="A62" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="99" t="s">
+      <c r="E62" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="99"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
     </row>
     <row r="63" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -14620,23 +14626,23 @@
       <c r="A79" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="99" t="s">
+      <c r="E79" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="99"/>
-      <c r="M79" s="99"/>
-      <c r="N79" s="99"/>
-      <c r="O79" s="99"/>
-      <c r="P79" s="99"/>
-      <c r="Q79" s="99"/>
-      <c r="R79" s="99"/>
-      <c r="S79" s="99"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="102"/>
+      <c r="L79" s="102"/>
+      <c r="M79" s="102"/>
+      <c r="N79" s="102"/>
+      <c r="O79" s="102"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="102"/>
+      <c r="S79" s="102"/>
     </row>
     <row r="80" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -15778,7 +15784,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B119" s="72" t="s">
         <v>158</v>
@@ -15833,23 +15839,23 @@
       <c r="A126" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="99" t="s">
+      <c r="E126" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="99"/>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="99"/>
-      <c r="L126" s="99"/>
-      <c r="M126" s="99"/>
-      <c r="N126" s="99"/>
-      <c r="O126" s="99"/>
-      <c r="P126" s="99"/>
-      <c r="Q126" s="99"/>
-      <c r="R126" s="99"/>
-      <c r="S126" s="99"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="102"/>
+      <c r="H126" s="102"/>
+      <c r="I126" s="102"/>
+      <c r="J126" s="102"/>
+      <c r="K126" s="102"/>
+      <c r="L126" s="102"/>
+      <c r="M126" s="102"/>
+      <c r="N126" s="102"/>
+      <c r="O126" s="102"/>
+      <c r="P126" s="102"/>
+      <c r="Q126" s="102"/>
+      <c r="R126" s="102"/>
+      <c r="S126" s="102"/>
     </row>
     <row r="127" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
@@ -16628,23 +16634,23 @@
       <c r="A141" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E141" s="99" t="s">
+      <c r="E141" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="99"/>
-      <c r="G141" s="99"/>
-      <c r="H141" s="99"/>
-      <c r="I141" s="99"/>
-      <c r="J141" s="99"/>
-      <c r="K141" s="99"/>
-      <c r="L141" s="99"/>
-      <c r="M141" s="99"/>
-      <c r="N141" s="99"/>
-      <c r="O141" s="99"/>
-      <c r="P141" s="99"/>
-      <c r="Q141" s="99"/>
-      <c r="R141" s="99"/>
-      <c r="S141" s="99"/>
+      <c r="F141" s="102"/>
+      <c r="G141" s="102"/>
+      <c r="H141" s="102"/>
+      <c r="I141" s="102"/>
+      <c r="J141" s="102"/>
+      <c r="K141" s="102"/>
+      <c r="L141" s="102"/>
+      <c r="M141" s="102"/>
+      <c r="N141" s="102"/>
+      <c r="O141" s="102"/>
+      <c r="P141" s="102"/>
+      <c r="Q141" s="102"/>
+      <c r="R141" s="102"/>
+      <c r="S141" s="102"/>
     </row>
     <row r="142" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
@@ -17762,23 +17768,23 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="100" t="s">
+      <c r="E167" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F167" s="100"/>
-      <c r="G167" s="100"/>
-      <c r="H167" s="100"/>
-      <c r="I167" s="100"/>
-      <c r="J167" s="100"/>
-      <c r="K167" s="100"/>
-      <c r="L167" s="100"/>
-      <c r="M167" s="100"/>
-      <c r="N167" s="100"/>
-      <c r="O167" s="100"/>
-      <c r="P167" s="100"/>
-      <c r="Q167" s="100"/>
-      <c r="R167" s="100"/>
-      <c r="S167" s="100"/>
+      <c r="F167" s="103"/>
+      <c r="G167" s="103"/>
+      <c r="H167" s="103"/>
+      <c r="I167" s="103"/>
+      <c r="J167" s="103"/>
+      <c r="K167" s="103"/>
+      <c r="L167" s="103"/>
+      <c r="M167" s="103"/>
+      <c r="N167" s="103"/>
+      <c r="O167" s="103"/>
+      <c r="P167" s="103"/>
+      <c r="Q167" s="103"/>
+      <c r="R167" s="103"/>
+      <c r="S167" s="103"/>
     </row>
     <row r="168" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
@@ -18322,23 +18328,23 @@
       <c r="A186" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="99" t="s">
+      <c r="E186" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F186" s="99"/>
-      <c r="G186" s="99"/>
-      <c r="H186" s="99"/>
-      <c r="I186" s="99"/>
-      <c r="J186" s="99"/>
-      <c r="K186" s="99"/>
-      <c r="L186" s="99"/>
-      <c r="M186" s="99"/>
-      <c r="N186" s="99"/>
-      <c r="O186" s="99"/>
-      <c r="P186" s="99"/>
-      <c r="Q186" s="99"/>
-      <c r="R186" s="99"/>
-      <c r="S186" s="99"/>
+      <c r="F186" s="102"/>
+      <c r="G186" s="102"/>
+      <c r="H186" s="102"/>
+      <c r="I186" s="102"/>
+      <c r="J186" s="102"/>
+      <c r="K186" s="102"/>
+      <c r="L186" s="102"/>
+      <c r="M186" s="102"/>
+      <c r="N186" s="102"/>
+      <c r="O186" s="102"/>
+      <c r="P186" s="102"/>
+      <c r="Q186" s="102"/>
+      <c r="R186" s="102"/>
+      <c r="S186" s="102"/>
     </row>
     <row r="187" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
@@ -18464,24 +18470,24 @@
       </c>
     </row>
     <row r="194" spans="1:4" s="83" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="99" t="s">
+      <c r="B194" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="99" t="s">
+      <c r="C194" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="99"/>
+      <c r="D194" s="102"/>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="99"/>
+      <c r="B195" s="102"/>
       <c r="C195" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -18612,25 +18618,25 @@
   <sheetData>
     <row r="1" spans="1:14" s="64" customFormat="1" ht="42" x14ac:dyDescent="0.65">
       <c r="A1" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="44"/>
@@ -19263,11 +19269,11 @@
       <c r="A25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40" t="s">
@@ -19490,14 +19496,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103" t="s">
+      <c r="C40" s="106"/>
+      <c r="D40" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="103"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
@@ -19672,8 +19678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19685,42 +19691,43 @@
     <col min="5" max="5" width="14.46484375" customWidth="1"/>
     <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.46484375" customWidth="1"/>
-    <col min="8" max="8" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.9296875" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.46484375" customWidth="1"/>
     <col min="10" max="10" width="15.1328125" customWidth="1"/>
     <col min="11" max="11" width="15.19921875" customWidth="1"/>
     <col min="12" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1328125" customWidth="1"/>
+    <col min="15" max="15" width="18.86328125" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" customWidth="1"/>
     <col min="17" max="17" width="27.46484375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="83" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+    </row>
+    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -19742,26 +19749,38 @@
       <c r="G3" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="K3" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="L3" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="M3" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="N3" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="O3" s="80" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="P3" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q3" s="88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -19784,25 +19803,37 @@
         <v>60047327.5</v>
       </c>
       <c r="H4" s="1">
+        <v>68242526.189999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>63650314.295000002</v>
+      </c>
+      <c r="J4" s="1">
         <v>1762693.2356100001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>1108232.6682200001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>1304159.8781000001</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>1444635.17814</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>906419.15989500005</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>956355.055865</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="P4" s="1">
+        <v>1508511.99187</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>882578.00238199998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -19824,39 +19855,41 @@
       <c r="G5" s="1">
         <v>78804325.805000007</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>1441676.38267</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>1362922.3163600001</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>1100083.4173600001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>1422861.1879400001</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>1039703.98688</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>1080111.8929300001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C7" s="83"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="103" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+    </row>
+    <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
         <v>200</v>
       </c>
@@ -19878,8 +19911,14 @@
       <c r="G9" s="80" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H9" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="83" t="s">
         <v>198</v>
       </c>
@@ -19906,8 +19945,16 @@
         <f>1-G4/B4</f>
         <v>0.13357749239517713</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H10" s="1">
+        <f>1-H4/B4</f>
+        <v>1.5329022481015642E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>1-I4/B4</f>
+        <v>8.1590018784616136E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="83" t="s">
         <v>199</v>
       </c>
@@ -19935,126 +19982,58 @@
         <v>8.0149068536547685E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>24274889.600000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>627751.64437600004</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="53"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25360553</v>
-      </c>
-      <c r="C17" s="1">
-        <v>422829.52122699999</v>
-      </c>
-      <c r="D17" s="1">
-        <f>B17/B16</f>
-        <v>1.0447237214211675</v>
-      </c>
+      <c r="A17" s="81"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="1">
-        <v>26971522.5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>560446.93692000001</v>
-      </c>
-      <c r="D18" s="1">
-        <f>B18/B16</f>
-        <v>1.1110873394044189</v>
-      </c>
+      <c r="A18" s="81"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="1">
-        <v>25727984.399999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>572645.80724200001</v>
-      </c>
-      <c r="D19" s="1">
-        <f>B19/B16</f>
-        <v>1.0598599962324853</v>
-      </c>
+      <c r="A19" s="53"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="1">
-        <v>26897282.5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>387863.36186</v>
-      </c>
-      <c r="D20" s="1">
-        <f>B20/B16</f>
-        <v>1.1080290350733459</v>
-      </c>
+      <c r="A20" s="80"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="1">
-        <v>28012025.800000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>446822.58678299998</v>
-      </c>
-      <c r="D21" s="1">
-        <f>B21/B16</f>
-        <v>1.1539506980909193</v>
-      </c>
+      <c r="A21" s="80"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="23" spans="1:5" s="83" customFormat="1" ht="44.25" x14ac:dyDescent="0.65">
       <c r="A23" s="79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.45">
@@ -20152,23 +20131,33 @@
     </row>
     <row r="30" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1">
-        <v>47725124.514300004</v>
+        <v>48250892.100000001</v>
       </c>
       <c r="C30" s="1">
-        <v>984604.14339400001</v>
+        <v>1119082.80657</v>
       </c>
       <c r="D30" s="1">
         <f>B30/B24</f>
-        <v>1.0324124231903791</v>
+        <v>1.04378607580442</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="80"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="1">
+        <v>50793620.649999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>461144.65773899999</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31/B24</f>
+        <v>1.0987915801490817</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="80"/>
@@ -20177,25 +20166,25 @@
     </row>
     <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
     </row>
     <row r="35" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="83" t="s">
@@ -21969,7 +21958,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
@@ -22033,28 +22022,28 @@
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="85" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="99" t="s">
+      <c r="E70" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="102"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="102"/>
+      <c r="O70" s="102"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="102"/>
     </row>
     <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A71" s="83" t="s">
@@ -22353,7 +22342,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B76" s="1">
         <v>1405.85</v>
@@ -23002,7 +22991,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B87" s="1">
         <v>1943.45</v>
@@ -23651,7 +23640,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B98" s="1">
         <v>1049.95</v>
@@ -23946,7 +23935,7 @@
     </row>
     <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="85" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.45">
@@ -23960,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>29907</v>
+        <v>30021</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>65</v>
@@ -23990,10 +23979,10 @@
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <v>29907.55</v>
+        <v>30021.1</v>
       </c>
       <c r="O106" s="1">
-        <v>515.94839616000002</v>
+        <v>361.04721297899999</v>
       </c>
       <c r="P106" s="1">
         <v>20</v>
@@ -24009,17 +23998,17 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A107" s="60" t="s">
+      <c r="A107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B107" s="1">
-        <v>1315.9</v>
+        <v>1288</v>
       </c>
       <c r="C107" s="1">
-        <v>22.225885809099999</v>
+        <v>4.8270073544600001</v>
       </c>
       <c r="D107" s="1">
-        <v>729643</v>
+        <v>742469</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>65</v>
@@ -24058,10 +24047,10 @@
         <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>729643.75</v>
+        <v>742469.55</v>
       </c>
       <c r="R107" s="1">
-        <v>13181.5310563</v>
+        <v>3649.7373532199999</v>
       </c>
       <c r="S107" s="1">
         <v>20</v>
@@ -24078,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>5924</v>
+        <v>518</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>65</v>
@@ -24090,13 +24079,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>606.10526315799996</v>
+        <v>518.65</v>
       </c>
       <c r="I108" s="1">
-        <v>125.334455605</v>
+        <v>91.409668525800001</v>
       </c>
       <c r="J108" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>65</v>
@@ -24116,18 +24105,18 @@
       <c r="P108" s="1">
         <v>0</v>
       </c>
-      <c r="Q108" s="1">
-        <v>106981</v>
-      </c>
-      <c r="R108" s="1">
-        <v>0</v>
+      <c r="Q108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B109" s="1">
@@ -24137,7 +24126,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>11743</v>
+        <v>13005</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>65</v>
@@ -24167,10 +24156,10 @@
         <v>0</v>
       </c>
       <c r="N109" s="1">
-        <v>11743.45</v>
+        <v>13005.8</v>
       </c>
       <c r="O109" s="1">
-        <v>361.399982706</v>
+        <v>244.12775344100001</v>
       </c>
       <c r="P109" s="1">
         <v>20</v>
@@ -24187,13 +24176,13 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B110" s="1">
-        <v>1408.4</v>
+        <v>1139.95</v>
       </c>
       <c r="C110" s="1">
-        <v>7.7871689335700003</v>
+        <v>6.0371764923700004</v>
       </c>
       <c r="D110" s="1">
         <v>1.8446744071700001E+19</v>
@@ -24238,7 +24227,7 @@
         <v>1.8446744071700001E+19</v>
       </c>
       <c r="R110" s="1">
-        <v>2098.5755168699998</v>
+        <v>9043.7231271199998</v>
       </c>
       <c r="S110" s="1">
         <v>20</v>
@@ -24255,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>65</v>
@@ -24267,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <v>422</v>
+        <v>498.9</v>
       </c>
       <c r="I111" s="1">
-        <v>21.5847168154</v>
+        <v>32.715286946600003</v>
       </c>
       <c r="J111" s="1">
         <v>20</v>
@@ -24304,17 +24293,17 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="107" t="s">
         <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>1407.4</v>
+        <v>1138.95</v>
       </c>
       <c r="C112" s="1">
-        <v>7.7871689335700003</v>
+        <v>6.0371764923700004</v>
       </c>
       <c r="D112" s="1">
-        <v>49068</v>
+        <v>30735</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>65</v>
@@ -24344,22 +24333,22 @@
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <v>43874.842105299998</v>
+        <v>30735</v>
       </c>
       <c r="O112" s="1">
-        <v>12730.305438400001</v>
+        <v>497.66745925399999</v>
       </c>
       <c r="P112" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q112" s="1">
-        <v>147752</v>
-      </c>
-      <c r="R112" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.45">
@@ -24373,7 +24362,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>10160</v>
+        <v>9948</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>65</v>
@@ -24394,22 +24383,22 @@
         <v>0</v>
       </c>
       <c r="K113" s="1">
-        <v>9899</v>
+        <v>9803.2857142899993</v>
       </c>
       <c r="L113" s="1">
-        <v>71.288147682499996</v>
+        <v>97.915728031399993</v>
       </c>
       <c r="M113" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N113" s="1">
-        <v>10248.1333333</v>
+        <v>10285.833333299999</v>
       </c>
       <c r="O113" s="1">
-        <v>238.94319176100001</v>
+        <v>99.942344490300002</v>
       </c>
       <c r="P113" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>65</v>
@@ -24422,7 +24411,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B114" s="1">
@@ -24432,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="1">
-        <v>68765</v>
+        <v>73444</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>65</v>
@@ -24462,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="N114" s="1">
-        <v>68765.149999999994</v>
+        <v>73444.649999999994</v>
       </c>
       <c r="O114" s="1">
-        <v>541.14104215099997</v>
+        <v>850.08177694899996</v>
       </c>
       <c r="P114" s="1">
         <v>20</v>
@@ -24491,7 +24480,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>1269</v>
+        <v>1402</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>65</v>
@@ -24512,10 +24501,10 @@
         <v>0</v>
       </c>
       <c r="K115" s="1">
-        <v>1269.95</v>
+        <v>1402.3</v>
       </c>
       <c r="L115" s="1">
-        <v>34.745467330300002</v>
+        <v>121.711996122</v>
       </c>
       <c r="M115" s="1">
         <v>20</v>
@@ -24544,13 +24533,13 @@
         <v>48</v>
       </c>
       <c r="B116" s="1">
-        <v>895.15</v>
+        <v>868.6</v>
       </c>
       <c r="C116" s="1">
-        <v>7.1573388909600002</v>
+        <v>0.48989794855699997</v>
       </c>
       <c r="D116" s="1">
-        <v>27446</v>
+        <v>24775</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>65</v>
@@ -24580,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="N116" s="1">
-        <v>27446.799999999999</v>
+        <v>24775.75</v>
       </c>
       <c r="O116" s="1">
-        <v>2998.10135919</v>
+        <v>1207.85176553</v>
       </c>
       <c r="P116" s="1">
         <v>20</v>
@@ -24599,7 +24588,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B117" s="1">
@@ -24609,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>176739</v>
+        <v>259163</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>65</v>
@@ -24648,10 +24637,10 @@
         <v>0</v>
       </c>
       <c r="Q117" s="1">
-        <v>176739.7</v>
+        <v>259163</v>
       </c>
       <c r="R117" s="1">
-        <v>975.73260169000002</v>
+        <v>604.87056466700005</v>
       </c>
       <c r="S117" s="1">
         <v>20</v>
@@ -24668,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="1">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>65</v>
@@ -24680,10 +24669,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="1">
-        <v>205.45</v>
+        <v>237.7</v>
       </c>
       <c r="I118" s="1">
-        <v>13.525808663399999</v>
+        <v>93.2829566427</v>
       </c>
       <c r="J118" s="1">
         <v>20</v>
@@ -24717,7 +24706,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="50" t="s">
         <v>109</v>
       </c>
       <c r="B119" s="1">
@@ -24727,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="1">
-        <v>118207</v>
+        <v>137395</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>65</v>
@@ -24766,10 +24755,10 @@
         <v>0</v>
       </c>
       <c r="Q119" s="1">
-        <v>118207.55</v>
+        <v>137395.6</v>
       </c>
       <c r="R119" s="1">
-        <v>614.03049395000005</v>
+        <v>877.718599552</v>
       </c>
       <c r="S119" s="1">
         <v>20</v>
@@ -24780,13 +24769,13 @@
         <v>137</v>
       </c>
       <c r="B120" s="1">
-        <v>1408.4</v>
+        <v>1139.95</v>
       </c>
       <c r="C120" s="1">
-        <v>7.7871689335700003</v>
+        <v>6.0371764923700004</v>
       </c>
       <c r="D120" s="1">
-        <v>34154</v>
+        <v>32942</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>65</v>
@@ -24816,36 +24805,36 @@
         <v>0</v>
       </c>
       <c r="N120" s="1">
-        <v>34154.800000000003</v>
+        <v>27570.157894700002</v>
       </c>
       <c r="O120" s="1">
-        <v>482.8610152</v>
+        <v>366.32804728399998</v>
       </c>
       <c r="P120" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>135025</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B121" s="1">
-        <v>1949.85</v>
+        <v>1798.65</v>
       </c>
       <c r="C121" s="1">
-        <v>14.602311460899999</v>
+        <v>10.174846436199999</v>
       </c>
       <c r="D121" s="1">
-        <v>1296706</v>
+        <v>1276196</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>65</v>
@@ -24884,10 +24873,10 @@
         <v>0</v>
       </c>
       <c r="Q121" s="1">
-        <v>1296706.3999999999</v>
+        <v>1276196.95</v>
       </c>
       <c r="R121" s="1">
-        <v>43178.930961099999</v>
+        <v>31570.899346499999</v>
       </c>
       <c r="S121" s="1">
         <v>20</v>
@@ -24904,7 +24893,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>65</v>
@@ -24916,10 +24905,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="1">
-        <v>136.9</v>
+        <v>141.5</v>
       </c>
       <c r="I122" s="1">
-        <v>2.14242852856</v>
+        <v>7.5</v>
       </c>
       <c r="J122" s="1">
         <v>20</v>
@@ -24963,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="1">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>65</v>
@@ -24975,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <v>935.83333333300004</v>
+        <v>928.47058823500004</v>
       </c>
       <c r="I123" s="1">
-        <v>78.370735751400005</v>
+        <v>42.394668986500001</v>
       </c>
       <c r="J123" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K123" s="1">
-        <v>1063.875</v>
+        <v>1395.33333333</v>
       </c>
       <c r="L123" s="1">
-        <v>33.164127834200002</v>
+        <v>253.34342085200001</v>
       </c>
       <c r="M123" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>65</v>
@@ -25022,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="1">
-        <v>55830</v>
+        <v>55259</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>65</v>
@@ -25052,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="N124" s="1">
-        <v>55830.05</v>
+        <v>55259.9</v>
       </c>
       <c r="O124" s="1">
-        <v>500.32414243199997</v>
+        <v>298.71322367800002</v>
       </c>
       <c r="P124" s="1">
         <v>20</v>
@@ -25075,13 +25064,13 @@
         <v>56</v>
       </c>
       <c r="B125" s="1">
-        <v>363.1</v>
+        <v>312.35000000000002</v>
       </c>
       <c r="C125" s="1">
-        <v>6.1229078059399997</v>
+        <v>2.7977669667099998</v>
       </c>
       <c r="D125" s="1">
-        <v>66460</v>
+        <v>28246</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>65</v>
@@ -25111,22 +25100,22 @@
         <v>0</v>
       </c>
       <c r="N125" s="1">
-        <v>49994.764705900001</v>
+        <v>28246.65</v>
       </c>
       <c r="O125" s="1">
-        <v>20383.560153499999</v>
+        <v>504.84931167600001</v>
       </c>
       <c r="P125" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q125" s="1">
-        <v>159763.33333299999</v>
-      </c>
-      <c r="R125" s="1">
-        <v>34279.748193699998</v>
+        <v>20</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S125" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.45">
@@ -25140,25 +25129,25 @@
         <v>0</v>
       </c>
       <c r="D126" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E126" s="1">
-        <v>57.9</v>
+        <v>56.421052631599999</v>
       </c>
       <c r="F126" s="1">
-        <v>12.140428328500001</v>
+        <v>16.642734433299999</v>
       </c>
       <c r="G126" s="1">
-        <v>20</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="H126" s="1">
+        <v>100</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
       </c>
       <c r="J126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>65</v>
@@ -25199,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="D127" s="1">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>65</v>
@@ -25211,10 +25200,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="1">
-        <v>479.8</v>
+        <v>448.9</v>
       </c>
       <c r="I127" s="1">
-        <v>101.805500834</v>
+        <v>64.331873904000005</v>
       </c>
       <c r="J127" s="1">
         <v>20</v>
@@ -25258,19 +25247,19 @@
         <v>0</v>
       </c>
       <c r="D128" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E128" s="1">
-        <v>63.210526315800003</v>
+        <v>57.421052631599999</v>
       </c>
       <c r="F128" s="1">
-        <v>15.9590889707</v>
+        <v>20.7676767813</v>
       </c>
       <c r="G128" s="1">
         <v>19</v>
       </c>
       <c r="H128" s="1">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
@@ -25317,25 +25306,25 @@
         <v>0</v>
       </c>
       <c r="D129" s="1">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="E129" s="1">
-        <v>87.461538461499998</v>
+        <v>86.647058823500004</v>
       </c>
       <c r="F129" s="1">
-        <v>10.881285166</v>
+        <v>11.6666501895</v>
       </c>
       <c r="G129" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H129" s="1">
-        <v>268.57142857100001</v>
+        <v>186.33333333300001</v>
       </c>
       <c r="I129" s="1">
-        <v>17.887402932600001</v>
+        <v>66.894610312699996</v>
       </c>
       <c r="J129" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>65</v>
@@ -25366,7 +25355,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B130" s="1">
@@ -25376,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="1">
-        <v>55059</v>
+        <v>71701</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>65</v>
@@ -25406,10 +25395,10 @@
         <v>0</v>
       </c>
       <c r="N130" s="1">
-        <v>55059.75</v>
+        <v>71701.25</v>
       </c>
       <c r="O130" s="1">
-        <v>525.24355065099996</v>
+        <v>305.19090337</v>
       </c>
       <c r="P130" s="1">
         <v>20</v>
@@ -25425,7 +25414,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B131" s="1">
@@ -25435,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="1">
-        <v>26147</v>
+        <v>31194</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>65</v>
@@ -25465,10 +25454,10 @@
         <v>0</v>
       </c>
       <c r="N131" s="1">
-        <v>26147.4</v>
+        <v>31194.35</v>
       </c>
       <c r="O131" s="1">
-        <v>219.27890915500001</v>
+        <v>353.02043496099998</v>
       </c>
       <c r="P131" s="1">
         <v>20</v>
@@ -25485,16 +25474,16 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B132" s="1">
-        <v>1055.9000000000001</v>
+        <v>1011.1</v>
       </c>
       <c r="C132" s="1">
-        <v>7.4020267494800001</v>
+        <v>1.0440306508899999</v>
       </c>
       <c r="D132" s="1">
-        <v>298692</v>
+        <v>270743</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>65</v>
@@ -25533,10 +25522,10 @@
         <v>0</v>
       </c>
       <c r="Q132" s="1">
-        <v>298692.75</v>
+        <v>270743.45</v>
       </c>
       <c r="R132" s="1">
-        <v>2305.1450252599998</v>
+        <v>1173.7496954200001</v>
       </c>
       <c r="S132" s="1">
         <v>20</v>
@@ -25553,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="1">
-        <v>73528</v>
+        <v>72349</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>65</v>
@@ -25583,10 +25572,10 @@
         <v>0</v>
       </c>
       <c r="N133" s="1">
-        <v>73528.600000000006</v>
+        <v>72349.649999999994</v>
       </c>
       <c r="O133" s="1">
-        <v>1405.5642781500001</v>
+        <v>1054.35616729</v>
       </c>
       <c r="P133" s="1">
         <v>20</v>
@@ -25602,7 +25591,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B134" s="1">
@@ -25612,7 +25601,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="1">
-        <v>10064</v>
+        <v>11010</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>65</v>
@@ -25632,23 +25621,23 @@
       <c r="J134" s="1">
         <v>0</v>
       </c>
-      <c r="K134" s="1">
-        <v>9867.4444444399996</v>
-      </c>
-      <c r="L134" s="1">
-        <v>58.997384332099998</v>
+      <c r="K134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M134" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N134" s="1">
-        <v>10225.909090900001</v>
+        <v>11010.85</v>
       </c>
       <c r="O134" s="1">
-        <v>103.692249684</v>
+        <v>131.15840613500001</v>
       </c>
       <c r="P134" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>65</v>
@@ -25671,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="1">
-        <v>7217</v>
+        <v>7073</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>65</v>
@@ -25692,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>7217.7</v>
+        <v>7073.85</v>
       </c>
       <c r="L135" s="1">
-        <v>164.46887243500001</v>
+        <v>162.09450175699999</v>
       </c>
       <c r="M135" s="1">
         <v>20</v>
@@ -25724,13 +25713,13 @@
         <v>61</v>
       </c>
       <c r="B136" s="1">
-        <v>338.2</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="C136" s="1">
-        <v>4.2142615011400002</v>
+        <v>3.52703841771</v>
       </c>
       <c r="D136" s="1">
-        <v>199891</v>
+        <v>179124</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>65</v>
@@ -25769,10 +25758,10 @@
         <v>0</v>
       </c>
       <c r="Q136" s="1">
-        <v>199891.25</v>
+        <v>179124.25</v>
       </c>
       <c r="R136" s="1">
-        <v>1917.1534334800001</v>
+        <v>2262.3900166600001</v>
       </c>
       <c r="S136" s="1">
         <v>20</v>
@@ -26411,10 +26400,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="E34:S34"/>
     <mergeCell ref="E70:S70"/>
+    <mergeCell ref="J2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26423,10 +26412,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26453,7 +26442,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="64" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -26465,25 +26454,25 @@
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -26636,531 +26625,464 @@
     </row>
     <row r="10" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>8.15</v>
       </c>
       <c r="C10" s="1">
-        <v>0.43643578047199999</v>
+        <v>0.35707142142699999</v>
       </c>
       <c r="D10" s="1">
-        <v>27233042301</v>
+        <v>27650278672.099998</v>
       </c>
       <c r="E10" s="1">
-        <v>583389311.06200004</v>
+        <v>838749621.29799998</v>
       </c>
       <c r="F10" s="1">
         <f>B10/B4</f>
-        <v>1.095890410958904</v>
+        <v>1.1164383561643836</v>
       </c>
       <c r="G10" s="1">
         <f>D10/D4</f>
-        <v>1.0975467407464274</v>
+        <v>1.1143622112384941</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="83"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21.210526315799999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.52102604929499996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>71844677823.899994</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1287105608.25</v>
+      </c>
+      <c r="F11" s="1">
+        <f>B11/B4</f>
+        <v>2.905551550109589</v>
+      </c>
+      <c r="G11" s="1">
+        <f>D11/D4</f>
+        <v>2.8954859730344227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.435889894354</v>
-      </c>
-      <c r="D13" s="1">
-        <v>30181494998.700001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1053272157.62</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="83" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>9.4499999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="C14" s="1">
-        <v>0.49749371855300001</v>
+        <v>0.435889894354</v>
       </c>
       <c r="D14" s="1">
-        <v>32017361556.799999</v>
+        <v>30181494998.700001</v>
       </c>
       <c r="E14" s="1">
-        <v>488814787.19</v>
+        <v>1053272157.62</v>
       </c>
       <c r="F14" s="1">
-        <f>B14/B13</f>
-        <v>1.0617977528089886</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f>D14/D13</f>
-        <v>1.0608275553672564</v>
+        <v>1</v>
       </c>
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1">
-        <v>33.450000000000003</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>1.24398553046</v>
+        <v>0.49749371855300001</v>
       </c>
       <c r="D15" s="1">
-        <v>113430625380</v>
+        <v>32017361556.799999</v>
       </c>
       <c r="E15" s="1">
-        <v>3425765678.6199999</v>
+        <v>488814787.19</v>
       </c>
       <c r="F15" s="1">
-        <f>B15/B13</f>
-        <v>3.7584269662921348</v>
+        <f>B15/B14</f>
+        <v>1.0617977528089886</v>
       </c>
       <c r="G15" s="1">
-        <f>D15/D13</f>
-        <v>3.7582838552194238</v>
+        <f>D15/D14</f>
+        <v>1.0608275553672564</v>
       </c>
       <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="83" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1">
-        <v>10.9</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>0.435889894354</v>
+        <v>1.24398553046</v>
       </c>
       <c r="D16" s="1">
-        <v>37052574059.199997</v>
+        <v>113430625380</v>
       </c>
       <c r="E16" s="1">
-        <v>946828240.625</v>
+        <v>3425765678.6199999</v>
       </c>
       <c r="F16" s="1">
-        <f>B16/B13</f>
-        <v>1.2247191011235954</v>
+        <f>B16/B14</f>
+        <v>3.7584269662921348</v>
       </c>
       <c r="G16" s="1">
-        <f>D16/D13</f>
-        <v>1.2276586716726905</v>
+        <f>D16/D14</f>
+        <v>3.7582838552194238</v>
       </c>
       <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="83" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1">
-        <v>34.950000000000003</v>
+        <v>10.9</v>
       </c>
       <c r="C17" s="1">
-        <v>0.97339611669699999</v>
+        <v>0.435889894354</v>
       </c>
       <c r="D17" s="1">
-        <v>118563173813</v>
+        <v>37052574059.199997</v>
       </c>
       <c r="E17" s="1">
-        <v>3183433070.77</v>
+        <v>946828240.625</v>
       </c>
       <c r="F17" s="1">
-        <f>B17/B13</f>
-        <v>3.9269662921348316</v>
+        <f>B17/B14</f>
+        <v>1.2247191011235954</v>
       </c>
       <c r="G17" s="1">
-        <f>D17/D13</f>
-        <v>3.928339991710379</v>
+        <f>D17/D14</f>
+        <v>1.2276586716726905</v>
       </c>
       <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.97339611669699999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>118563173813</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3183433070.77</v>
+      </c>
+      <c r="F18" s="1">
+        <f>B18/B14</f>
+        <v>3.9269662921348316</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D18/D14</f>
+        <v>3.928339991710379</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>35.450000000000003</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>1.2835497653000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>120314782782</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>3967466972.5999999</v>
       </c>
-      <c r="F18" s="1">
-        <f>B18/B13</f>
+      <c r="F19" s="1">
+        <f>B19/B14</f>
         <v>3.9831460674157304</v>
       </c>
-      <c r="G18" s="1">
-        <f>D18/D13</f>
+      <c r="G19" s="1">
+        <f>D19/D14</f>
         <v>3.9863758500757593</v>
       </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9.2380952380999997</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.52596957224700003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>31421377902.400002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>474756547.47500002</v>
-      </c>
-      <c r="F19" s="1">
-        <f>B19/B13</f>
-        <v>1.037988229</v>
-      </c>
-      <c r="G19" s="1">
-        <f>D19/D13</f>
-        <v>1.0410808975418018</v>
-      </c>
       <c r="H19" s="48"/>
     </row>
-    <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.65">
-      <c r="A21" s="64" t="s">
+    <row r="20" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.45825756949599999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31595833590.799999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>900623992.03999996</v>
+      </c>
+      <c r="F20" s="1">
+        <f>B20/B14</f>
+        <v>1.0449438202247192</v>
+      </c>
+      <c r="G20" s="1">
+        <f>D20/D14</f>
+        <v>1.0468611177862766</v>
+      </c>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="1">
+        <v>32.421052631599999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.81536491499099994</v>
+      </c>
+      <c r="D21" s="1">
+        <v>110011027249</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2536818639.0500002</v>
+      </c>
+      <c r="F21" s="1">
+        <f>B21/B14</f>
+        <v>3.642814902426966</v>
+      </c>
+      <c r="G21" s="1">
+        <f>D21/D14</f>
+        <v>3.6449827039296254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+      <c r="A23" s="64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+      <c r="A24" s="64"/>
+    </row>
+    <row r="25" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="68" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.65">
-      <c r="A22" s="64"/>
-    </row>
-    <row r="23" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="69" t="s">
+      <c r="J25" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="K25" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="L25" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="M25" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="N25" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="O25" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="K23" s="69" t="s">
+      <c r="P25" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="Q25" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="M23" s="70" t="s">
+      <c r="R25" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="N23" s="69" t="s">
+      <c r="S25" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="O23" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="P23" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q23" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="R23" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="S23" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>11461.8421053</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="1">
         <v>2566.2096411699999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D26" s="1">
         <v>502754.94736799999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E26" s="1">
         <v>502754.94736799999</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F26" s="1">
         <v>186849.495987</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G26" s="1">
         <v>19</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="1">
         <v>1246543</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="50">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50">
         <v>119836715.053</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
         <v>119836715.053</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O27" s="1">
         <v>242797.25250500001</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P27" s="1">
         <v>19</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1">
-        <v>558663.31578900001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2595.7965424399999</v>
-      </c>
-      <c r="D26" s="50">
-        <v>344334048.78899997</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>344334048.78899997</v>
-      </c>
-      <c r="O26" s="1">
-        <v>4097940.12567</v>
-      </c>
-      <c r="P26" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3734178</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>85668577.315799996</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>85668577.315799996</v>
-      </c>
-      <c r="L27" s="1">
-        <v>248204.803293</v>
-      </c>
-      <c r="M27" s="1">
-        <v>19</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>65</v>
@@ -27174,16 +27096,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="50" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
-        <v>3734178</v>
+        <v>558663.31578900001</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>2595.7965424399999</v>
       </c>
       <c r="D28" s="50">
-        <v>112642405.947</v>
+        <v>344334048.78899997</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>65</v>
@@ -27213,10 +27135,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>112642405.947</v>
+        <v>344334048.78899997</v>
       </c>
       <c r="O28" s="1">
-        <v>494461.09719599999</v>
+        <v>4097940.12567</v>
       </c>
       <c r="P28" s="1">
         <v>19</v>
@@ -27233,16 +27155,16 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B29" s="1">
-        <v>15688</v>
+        <v>3734178</v>
       </c>
       <c r="C29" s="1">
-        <v>13649.602504300001</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>3974238045550</v>
+        <v>85668577.315799996</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>65</v>
@@ -27262,14 +27184,14 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>65</v>
+      <c r="K29" s="1">
+        <v>85668577.315799996</v>
+      </c>
+      <c r="L29" s="1">
+        <v>248204.803293</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>65</v>
@@ -27280,28 +27202,28 @@
       <c r="P29" s="1">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
-        <v>3974238045550</v>
-      </c>
-      <c r="R29" s="1">
-        <v>467222283456</v>
+      <c r="Q29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S29" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="50" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1">
-        <v>558738.26315799996</v>
+        <v>3734178</v>
       </c>
       <c r="C30" s="1">
-        <v>2656.8283592900002</v>
+        <v>0</v>
       </c>
       <c r="D30" s="50">
-        <v>321364307.10500002</v>
+        <v>112642405.947</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>65</v>
@@ -27331,10 +27253,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>321364307.10500002</v>
+        <v>112642405.947</v>
       </c>
       <c r="O30" s="1">
-        <v>2378387.4426600002</v>
+        <v>494461.09719599999</v>
       </c>
       <c r="P30" s="1">
         <v>19</v>
@@ -27351,367 +27273,367 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15688</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13649.602504300001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3974238045550</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3974238045550</v>
+      </c>
+      <c r="R31" s="1">
+        <v>467222283456</v>
+      </c>
+      <c r="S31" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1">
+        <v>558738.26315799996</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2656.8283592900002</v>
+      </c>
+      <c r="D32" s="50">
+        <v>321364307.10500002</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>321364307.10500002</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2378387.4426600002</v>
+      </c>
+      <c r="P32" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>4684.73684211</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C33" s="1">
         <v>3794.7241053900002</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D33" s="1">
         <v>3923747.2105299998</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>3068706.8235300002</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I33" s="1">
         <v>1804427.6720799999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J33" s="1">
         <v>17</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K33" s="1">
         <v>11191590.5</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L33" s="1">
         <v>416284.5</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M33" s="1">
         <v>2</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E35" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="K35" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="L35" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="M35" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="54" t="s">
+      <c r="N35" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="O35" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="P35" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="Q35" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="M33" s="62" t="s">
+      <c r="R35" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="N33" s="56" t="s">
+      <c r="S35" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="O33" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="P33" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q33" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="R33" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="S33" s="62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>13824</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <v>3699.60092442</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D36" s="1">
         <v>610155.6</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E36" s="1">
         <v>511316.29411800002</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F36" s="1">
         <v>119556.769397</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G36" s="1">
         <v>17</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H36" s="1">
         <v>1170245</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I36" s="1">
         <v>92311.194023300006</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J36" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A35" s="50" t="s">
+      <c r="K36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B37" s="1">
         <v>1246543</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="50">
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="50">
         <v>139061750.94999999</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
         <v>139061750.94999999</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O37" s="1">
         <v>271298.96105400001</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P37" s="1">
         <v>20</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="1">
-        <v>559418.85</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3785.6267416999999</v>
-      </c>
-      <c r="D36" s="50">
-        <v>349817428.10000002</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>349817428.10000002</v>
-      </c>
-      <c r="O36" s="1">
-        <v>3172630.7514499999</v>
-      </c>
-      <c r="P36" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3734178</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>85753266.049999997</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>85753266.049999997</v>
-      </c>
-      <c r="L37" s="1">
-        <v>322620.78732</v>
-      </c>
-      <c r="M37" s="1">
-        <v>20</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>65</v>
@@ -27725,16 +27647,16 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="50" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
-        <v>3734178</v>
+        <v>559418.85</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>3785.6267416999999</v>
       </c>
       <c r="D38" s="50">
-        <v>118303512.34999999</v>
+        <v>349817428.10000002</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>65</v>
@@ -27764,10 +27686,10 @@
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <v>118303512.34999999</v>
+        <v>349817428.10000002</v>
       </c>
       <c r="O38" s="1">
-        <v>515365.96987799997</v>
+        <v>3172630.7514499999</v>
       </c>
       <c r="P38" s="1">
         <v>20</v>
@@ -27784,16 +27706,16 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1">
-        <v>19855</v>
+        <v>3734178</v>
       </c>
       <c r="C39" s="1">
-        <v>19592.6590105</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>5099827786050</v>
+        <v>85753266.049999997</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>65</v>
@@ -27813,14 +27735,14 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>65</v>
+      <c r="K39" s="1">
+        <v>85753266.049999997</v>
+      </c>
+      <c r="L39" s="1">
+        <v>322620.78732</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>65</v>
@@ -27831,28 +27753,28 @@
       <c r="P39" s="1">
         <v>0</v>
       </c>
-      <c r="Q39" s="1">
-        <v>5099827786050</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1471276338400</v>
+      <c r="Q39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S39" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="50" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1">
-        <v>559569.44999999995</v>
+        <v>3734178</v>
       </c>
       <c r="C40" s="1">
-        <v>3814.1770078899999</v>
+        <v>0</v>
       </c>
       <c r="D40" s="50">
-        <v>323059273.5</v>
+        <v>118303512.34999999</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>65</v>
@@ -27882,10 +27804,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>323059273.5</v>
+        <v>118303512.34999999</v>
       </c>
       <c r="O40" s="1">
-        <v>2678956.4356200001</v>
+        <v>515365.96987799997</v>
       </c>
       <c r="P40" s="1">
         <v>20</v>
@@ -27902,276 +27824,276 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19855</v>
+      </c>
+      <c r="C41" s="1">
+        <v>19592.6590105</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5099827786050</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>5099827786050</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1471276338400</v>
+      </c>
+      <c r="S41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1">
+        <v>559569.44999999995</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3814.1770078899999</v>
+      </c>
+      <c r="D42" s="50">
+        <v>323059273.5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>323059273.5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2678956.4356200001</v>
+      </c>
+      <c r="P42" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B43" s="1">
         <v>6059</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C43" s="1">
         <v>5510.0143194000002</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D43" s="1">
         <v>5111998.3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="E43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
         <v>3428650.1764699998</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I43" s="1">
         <v>1877743.2287600001</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J43" s="1">
         <v>17</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K43" s="1">
         <v>14650971</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L43" s="1">
         <v>1440250.0381400001</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M43" s="1">
         <v>3</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A44" s="87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A45" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="N43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A46" s="87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A47" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E47" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="J47" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="K47" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="L47" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="M47" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="I45" s="54" t="s">
+      <c r="N47" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="O47" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="K45" s="56" t="s">
+      <c r="P47" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="L45" s="54" t="s">
+      <c r="Q47" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="M45" s="62" t="s">
+      <c r="R47" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="N45" s="56" t="s">
+      <c r="S47" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="O45" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="P45" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q45" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="R45" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="S45" s="62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B48" s="1">
         <v>13275.9</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
         <v>3988.1263508100001</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D48" s="1">
         <v>652580.05000000005</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E48" s="1">
         <v>567043.44444400002</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F48" s="1">
         <v>117135.85226</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G48" s="1">
         <v>18</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H48" s="1">
         <v>1422409.5</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I48" s="1">
         <v>153663.5</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J48" s="1">
         <v>2</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1246543</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>137664381.65000001</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>137664381.65000001</v>
-      </c>
-      <c r="O47" s="1">
-        <v>339281.89381899999</v>
-      </c>
-      <c r="P47" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A48" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="60">
-        <v>250297.25</v>
-      </c>
-      <c r="C48" s="60">
-        <v>512.73656735199995</v>
-      </c>
-      <c r="D48" s="60">
-        <v>188336777.30000001</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
       <c r="K48" s="1" t="s">
         <v>65</v>
       </c>
@@ -28181,14 +28103,14 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1">
-        <v>188336777.30000001</v>
-      </c>
-      <c r="O48" s="1">
-        <v>2943481.9281899999</v>
+      <c r="N48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P48" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>65</v>
@@ -28202,16 +28124,16 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1">
-        <v>3734177.85</v>
+        <v>1246543</v>
       </c>
       <c r="C49" s="1">
-        <v>0.65383484153100002</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>85782962.650000006</v>
+        <v>137664381.65000001</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>65</v>
@@ -28231,24 +28153,24 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-      <c r="K49" s="1">
-        <v>85782962.650000006</v>
-      </c>
-      <c r="L49" s="1">
-        <v>290459.25010800001</v>
+      <c r="K49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>137664381.65000001</v>
+      </c>
+      <c r="O49" s="1">
+        <v>339281.89381899999</v>
+      </c>
+      <c r="P49" s="1">
         <v>20</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
       <c r="Q49" s="1" t="s">
         <v>65</v>
       </c>
@@ -28260,17 +28182,17 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3734177.85</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.65383484153100002</v>
-      </c>
-      <c r="D50" s="1">
-        <v>109181173.45</v>
+      <c r="A50" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="60">
+        <v>250297.25</v>
+      </c>
+      <c r="C50" s="60">
+        <v>512.73656735199995</v>
+      </c>
+      <c r="D50" s="60">
+        <v>188336777.30000001</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>65</v>
@@ -28300,10 +28222,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="1">
-        <v>109181173.45</v>
+        <v>188336777.30000001</v>
       </c>
       <c r="O50" s="1">
-        <v>450673.17152899998</v>
+        <v>2943481.9281899999</v>
       </c>
       <c r="P50" s="1">
         <v>20</v>
@@ -28319,17 +28241,17 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A51" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="60">
-        <v>344231.25</v>
-      </c>
-      <c r="C51" s="60">
-        <v>4097.65457152</v>
-      </c>
-      <c r="D51" s="60">
-        <v>229954780.65000001</v>
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3734177.85</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.65383484153100002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>85782962.650000006</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>65</v>
@@ -28349,23 +28271,23 @@
       <c r="J51" s="1">
         <v>0</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>65</v>
+      <c r="K51" s="1">
+        <v>85782962.650000006</v>
+      </c>
+      <c r="L51" s="1">
+        <v>290459.25010800001</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>229954780.65000001</v>
-      </c>
-      <c r="O51" s="1">
-        <v>2351307.59241</v>
+        <v>20</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P51" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>65</v>
@@ -28379,16 +28301,16 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1">
-        <v>18805.2</v>
+        <v>3734177.85</v>
       </c>
       <c r="C52" s="1">
-        <v>21495.246866699999</v>
+        <v>0.65383484153100002</v>
       </c>
       <c r="D52" s="1">
-        <v>9.20942662936E+17</v>
+        <v>109181173.45</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>65</v>
@@ -28417,364 +28339,364 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>65</v>
+      <c r="N52" s="1">
+        <v>109181173.45</v>
+      </c>
+      <c r="O52" s="1">
+        <v>450673.17152899998</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>9.20942662936E+17</v>
-      </c>
-      <c r="R52" s="1">
-        <v>4.01428070688E+18</v>
+        <v>20</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A53" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="60">
+        <v>344231.25</v>
+      </c>
+      <c r="C53" s="60">
+        <v>4097.65457152</v>
+      </c>
+      <c r="D53" s="60">
+        <v>229954780.65000001</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>229954780.65000001</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2351307.59241</v>
+      </c>
+      <c r="P53" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>26516</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>26516</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
+      <c r="Q53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>18805.2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21495.246866699999</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9.20942662936E+17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>9.20942662936E+17</v>
+      </c>
+      <c r="R54" s="1">
+        <v>4.01428070688E+18</v>
+      </c>
+      <c r="S54" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>26516</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>26516</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B56" s="1">
         <v>5639.1</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C56" s="1">
         <v>5996.9215260800001</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D56" s="1">
         <v>3497626.7</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
+      <c r="E56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
         <v>2425583.2222199999</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I56" s="1">
         <v>1362739.54103</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J56" s="1">
         <v>18</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K56" s="1">
         <v>13146018</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L56" s="1">
         <v>1620398</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M56" s="1">
         <v>2</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="21" x14ac:dyDescent="0.65">
-      <c r="A57" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B58" s="68" t="s">
+      <c r="N56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+      <c r="A59" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A60" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C60" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D60" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E60" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="J60" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="K60" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="70" t="s">
+      <c r="L60" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="M60" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I58" s="68" t="s">
+      <c r="N60" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="O60" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="K58" s="69" t="s">
+      <c r="P60" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L58" s="68" t="s">
+      <c r="Q60" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="M58" s="70" t="s">
+      <c r="R60" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="N58" s="69" t="s">
+      <c r="S60" s="70" t="s">
         <v>233</v>
-      </c>
-      <c r="O58" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="P58" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q58" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="R58" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="S58" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="1">
-        <v>12939.2</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2392.6902975500002</v>
-      </c>
-      <c r="D59" s="1">
-        <v>468755.65</v>
-      </c>
-      <c r="E59" s="1">
-        <v>468755.65</v>
-      </c>
-      <c r="F59" s="1">
-        <v>154671.916394</v>
-      </c>
-      <c r="G59" s="1">
-        <v>20</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1246543</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="50">
-        <v>137929827.69999999</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1">
-        <v>137929827.69999999</v>
-      </c>
-      <c r="O60" s="1">
-        <v>295237.70695999998</v>
-      </c>
-      <c r="P60" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S60" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1">
-        <v>1743680</v>
+        <v>12939.2</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="50">
-        <v>689639546.5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>65</v>
+        <v>2392.6902975500002</v>
+      </c>
+      <c r="D61" s="1">
+        <v>468755.65</v>
+      </c>
+      <c r="E61" s="1">
+        <v>468755.65</v>
+      </c>
+      <c r="F61" s="1">
+        <v>154671.916394</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>65</v>
@@ -28794,14 +28716,14 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1">
-        <v>689639546.5</v>
-      </c>
-      <c r="O61" s="1">
-        <v>2108999.73465</v>
+      <c r="N61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P61" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>65</v>
@@ -28815,16 +28737,16 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>250219.95</v>
+        <v>1246543</v>
       </c>
       <c r="C62" s="1">
-        <v>294.30961163400002</v>
+        <v>0</v>
       </c>
       <c r="D62" s="50">
-        <v>179123191.94999999</v>
+        <v>137929827.69999999</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>65</v>
@@ -28854,10 +28776,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <v>179123191.94999999</v>
+        <v>137929827.69999999</v>
       </c>
       <c r="O62" s="1">
-        <v>1752094.0046900001</v>
+        <v>295237.70695999998</v>
       </c>
       <c r="P62" s="1">
         <v>20</v>
@@ -28874,16 +28796,16 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="B63" s="1">
-        <v>3734178</v>
+        <v>1743680</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
-      <c r="D63" s="1">
-        <v>92620557.950000003</v>
+      <c r="D63" s="50">
+        <v>689639546.5</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>65</v>
@@ -28903,23 +28825,23 @@
       <c r="J63" s="1">
         <v>0</v>
       </c>
-      <c r="K63" s="1">
-        <v>91956353.473700002</v>
-      </c>
-      <c r="L63" s="1">
-        <v>201216.37964900001</v>
+      <c r="K63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M63" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N63" s="1">
-        <v>105240443</v>
+        <v>689639546.5</v>
       </c>
       <c r="O63" s="1">
-        <v>0</v>
+        <v>2108999.73465</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>65</v>
@@ -28933,16 +28855,16 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B64" s="1">
-        <v>3734178</v>
+        <v>250219.95</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>294.30961163400002</v>
       </c>
       <c r="D64" s="50">
-        <v>117125877.40000001</v>
+        <v>179123191.94999999</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
@@ -28972,10 +28894,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>117125877.40000001</v>
+        <v>179123191.94999999</v>
       </c>
       <c r="O64" s="1">
-        <v>440082.55138899997</v>
+        <v>1752094.0046900001</v>
       </c>
       <c r="P64" s="1">
         <v>20</v>
@@ -28992,16 +28914,16 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1">
-        <v>343604.1</v>
+        <v>3734178</v>
       </c>
       <c r="C65" s="1">
-        <v>2354.6221119299998</v>
-      </c>
-      <c r="D65" s="50">
-        <v>224634094.19999999</v>
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>92620557.950000003</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>65</v>
@@ -29021,23 +28943,23 @@
       <c r="J65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>65</v>
+      <c r="K65" s="1">
+        <v>91956353.473700002</v>
+      </c>
+      <c r="L65" s="1">
+        <v>201216.37964900001</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N65" s="1">
-        <v>224634094.19999999</v>
+        <v>105240443</v>
       </c>
       <c r="O65" s="1">
-        <v>1454302.3509</v>
+        <v>0</v>
       </c>
       <c r="P65" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>65</v>
@@ -29051,16 +28973,16 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1">
-        <v>760114.7</v>
+        <v>3734178</v>
       </c>
       <c r="C66" s="1">
-        <v>2415.3025711099999</v>
+        <v>0</v>
       </c>
       <c r="D66" s="50">
-        <v>202262307.34999999</v>
+        <v>117125877.40000001</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>65</v>
@@ -29090,10 +29012,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>202262307.34999999</v>
+        <v>117125877.40000001</v>
       </c>
       <c r="O66" s="1">
-        <v>676135.98852999997</v>
+        <v>440082.55138899997</v>
       </c>
       <c r="P66" s="1">
         <v>20</v>
@@ -29110,16 +29032,16 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="B67" s="1">
-        <v>3734178</v>
+        <v>343604.1</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>2354.6221119299998</v>
       </c>
       <c r="D67" s="50">
-        <v>934353888.95000005</v>
+        <v>224634094.19999999</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>65</v>
@@ -29149,10 +29071,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <v>934353888.95000005</v>
+        <v>224634094.19999999</v>
       </c>
       <c r="O67" s="1">
-        <v>120506.843435</v>
+        <v>1454302.3509</v>
       </c>
       <c r="P67" s="1">
         <v>20</v>
@@ -29169,16 +29091,16 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="B68" s="1">
-        <v>15595.55</v>
+        <v>760114.7</v>
       </c>
       <c r="C68" s="1">
-        <v>12596.819548900001</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1957076.75</v>
+        <v>2415.3025711099999</v>
+      </c>
+      <c r="D68" s="50">
+        <v>202262307.34999999</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>65</v>
@@ -29189,32 +29111,32 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="1">
-        <v>1957076.75</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1116785.43059</v>
+      <c r="H68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>202262307.34999999</v>
+      </c>
+      <c r="O68" s="1">
+        <v>676135.98852999997</v>
+      </c>
+      <c r="P68" s="1">
         <v>20</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>65</v>
@@ -29228,113 +29150,189 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="50">
+        <v>934353888.95000005</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>934353888.95000005</v>
+      </c>
+      <c r="O69" s="1">
+        <v>120506.843435</v>
+      </c>
+      <c r="P69" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15595.55</v>
+      </c>
+      <c r="C70" s="1">
+        <v>12596.819548900001</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1957076.75</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1957076.75</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1116785.43059</v>
+      </c>
+      <c r="J70" s="1">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B71" s="1">
         <v>4788.2</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C71" s="1">
         <v>3375.3461392899999</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D71" s="1">
         <v>3032572.95</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="E71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
         <v>3032572.95</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I71" s="1">
         <v>1976689.96789</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J71" s="1">
         <v>20</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
-        <f>SUM(D59:D69)</f>
-        <v>2583147697.3499999</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1">
+        <f>SUM(D61:D71)</f>
+        <v>2583147697.3499999</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -29351,204 +29349,128 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B73" s="68" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C75" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D75" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="69" t="s">
+      <c r="E75" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="K75" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="70" t="s">
+      <c r="L75" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H73" s="69" t="s">
+      <c r="M75" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I73" s="68" t="s">
+      <c r="N75" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="J73" s="70" t="s">
+      <c r="O75" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="K73" s="69" t="s">
+      <c r="P75" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L73" s="68" t="s">
+      <c r="Q75" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="M73" s="70" t="s">
+      <c r="R75" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="N73" s="69" t="s">
+      <c r="S75" s="70" t="s">
         <v>233</v>
-      </c>
-      <c r="O73" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="P73" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q73" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="R73" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="S73" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="1">
-        <v>11446.5</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2344.4382802700002</v>
-      </c>
-      <c r="D74" s="1">
-        <v>417891.15</v>
-      </c>
-      <c r="E74" s="1">
-        <v>417891.15</v>
-      </c>
-      <c r="F74" s="1">
-        <v>156441.90516200001</v>
-      </c>
-      <c r="G74" s="1">
-        <v>20</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1246543</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
-        <v>119883391.34999999</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1">
-        <v>119883391.34999999</v>
-      </c>
-      <c r="O75" s="1">
-        <v>204506.32689900001</v>
-      </c>
-      <c r="P75" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B76" s="1">
-        <v>1743680</v>
+        <v>11446.5</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>2344.4382802700002</v>
       </c>
       <c r="D76" s="1">
-        <v>677913482.89999998</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>65</v>
+        <v>417891.15</v>
+      </c>
+      <c r="E76" s="1">
+        <v>417891.15</v>
+      </c>
+      <c r="F76" s="1">
+        <v>156441.90516200001</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>65</v>
@@ -29568,14 +29490,14 @@
       <c r="M76" s="1">
         <v>0</v>
       </c>
-      <c r="N76" s="1">
-        <v>677913482.89999998</v>
-      </c>
-      <c r="O76" s="1">
-        <v>2948036.68995</v>
+      <c r="N76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P76" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>65</v>
@@ -29589,16 +29511,16 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1">
-        <v>250174.55</v>
+        <v>1246543</v>
       </c>
       <c r="C77" s="1">
-        <v>266.90325494500001</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>188427424.84999999</v>
+        <v>119883391.34999999</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>65</v>
@@ -29628,10 +29550,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <v>188427424.84999999</v>
+        <v>119883391.34999999</v>
       </c>
       <c r="O77" s="1">
-        <v>2484140.25911</v>
+        <v>204506.32689900001</v>
       </c>
       <c r="P77" s="1">
         <v>20</v>
@@ -29648,16 +29570,16 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="B78" s="1">
-        <v>3734178</v>
+        <v>1743680</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>91249714.25</v>
+        <v>677913482.89999998</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>65</v>
@@ -29677,23 +29599,23 @@
       <c r="J78" s="1">
         <v>0</v>
       </c>
-      <c r="K78" s="1">
-        <v>91249714.25</v>
-      </c>
-      <c r="L78" s="1">
-        <v>208697.41265099999</v>
+      <c r="K78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>677913482.89999998</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2948036.68995</v>
+      </c>
+      <c r="P78" s="1">
         <v>20</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P78" s="1">
-        <v>0</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>65</v>
@@ -29707,16 +29629,16 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1">
-        <v>3734178</v>
+        <v>250174.55</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>266.90325494500001</v>
       </c>
       <c r="D79" s="1">
-        <v>106626277.45</v>
+        <v>188427424.84999999</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>65</v>
@@ -29746,10 +29668,10 @@
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <v>106626277.45</v>
+        <v>188427424.84999999</v>
       </c>
       <c r="O79" s="1">
-        <v>215458.13572399999</v>
+        <v>2484140.25911</v>
       </c>
       <c r="P79" s="1">
         <v>20</v>
@@ -29766,16 +29688,16 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1">
-        <v>343244.79999999999</v>
+        <v>3734178</v>
       </c>
       <c r="C80" s="1">
-        <v>2130.6245938699999</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>216148094.44999999</v>
+        <v>91249714.25</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>65</v>
@@ -29795,23 +29717,23 @@
       <c r="J80" s="1">
         <v>0</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>65</v>
+      <c r="K80" s="1">
+        <v>91249714.25</v>
+      </c>
+      <c r="L80" s="1">
+        <v>208697.41265099999</v>
       </c>
       <c r="M80" s="1">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1">
-        <v>216148094.44999999</v>
-      </c>
-      <c r="O80" s="1">
-        <v>1524213.99707</v>
+        <v>20</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P80" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>65</v>
@@ -29825,16 +29747,16 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1">
-        <v>758626.6</v>
+        <v>3734178</v>
       </c>
       <c r="C81" s="1">
-        <v>2362.89065342</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>201879228.75</v>
+        <v>106626277.45</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>65</v>
@@ -29864,10 +29786,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <v>201879228.75</v>
+        <v>106626277.45</v>
       </c>
       <c r="O81" s="1">
-        <v>673345.74561700004</v>
+        <v>215458.13572399999</v>
       </c>
       <c r="P81" s="1">
         <v>20</v>
@@ -29884,16 +29806,16 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="B82" s="1">
-        <v>3734178</v>
+        <v>343244.79999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>2130.6245938699999</v>
       </c>
       <c r="D82" s="1">
-        <v>934433538.14999998</v>
+        <v>216148094.44999999</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>65</v>
@@ -29923,10 +29845,10 @@
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <v>934433538.14999998</v>
+        <v>216148094.44999999</v>
       </c>
       <c r="O82" s="1">
-        <v>128965.70305</v>
+        <v>1524213.99707</v>
       </c>
       <c r="P82" s="1">
         <v>20</v>
@@ -29943,16 +29865,16 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="B83" s="1">
-        <v>14426.55</v>
+        <v>758626.6</v>
       </c>
       <c r="C83" s="1">
-        <v>12386.131359200001</v>
+        <v>2362.89065342</v>
       </c>
       <c r="D83" s="1">
-        <v>1636651.4</v>
+        <v>201879228.75</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>65</v>
@@ -29963,32 +29885,32 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="1">
-        <v>1636651.4</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1073590.9397400001</v>
+      <c r="H83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>201879228.75</v>
+      </c>
+      <c r="O83" s="1">
+        <v>673345.74561700004</v>
+      </c>
+      <c r="P83" s="1">
         <v>20</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M83" s="1">
-        <v>0</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>65</v>
@@ -30002,94 +29924,189 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>934433538.14999998</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>934433538.14999998</v>
+      </c>
+      <c r="O84" s="1">
+        <v>128965.70305</v>
+      </c>
+      <c r="P84" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="1">
+        <v>14426.55</v>
+      </c>
+      <c r="C85" s="1">
+        <v>12386.131359200001</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1636651.4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1636651.4</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1073590.9397400001</v>
+      </c>
+      <c r="J85" s="1">
+        <v>20</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B86" s="1">
         <v>4334</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C86" s="1">
         <v>3058.3712004899999</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D86" s="1">
         <v>2730537.1</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
+      <c r="E86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
         <v>2730537.1</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I86" s="1">
         <v>1794921.4398000001</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J86" s="1">
         <v>20</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1">
-        <f>SUM(D74:D84)</f>
-        <v>2541346231.8000002</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="78" t="s">
-        <v>252</v>
-      </c>
+      <c r="K86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1">
+        <f>SUM(D76:D86)</f>
+        <v>2541346231.8000002</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -30106,204 +30123,109 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A88" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" s="68" t="s">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="68" t="s">
+      <c r="C90" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D90" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="69" t="s">
+      <c r="E90" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G90" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H90" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="J90" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F88" s="68" t="s">
+      <c r="K90" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G88" s="70" t="s">
+      <c r="L90" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H88" s="69" t="s">
+      <c r="M90" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I88" s="68" t="s">
+      <c r="N90" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="J88" s="70" t="s">
+      <c r="O90" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="K88" s="69" t="s">
+      <c r="P90" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L88" s="68" t="s">
+      <c r="Q90" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="M88" s="70" t="s">
+      <c r="R90" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="N88" s="69" t="s">
+      <c r="S90" s="70" t="s">
         <v>233</v>
-      </c>
-      <c r="O88" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="P88" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q88" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="R88" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="S88" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="1">
-        <v>12874.1</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2179.5713546500001</v>
-      </c>
-      <c r="D89" s="1">
-        <v>457640.9</v>
-      </c>
-      <c r="E89" s="1">
-        <v>457640.9</v>
-      </c>
-      <c r="F89" s="1">
-        <v>142934.85964800001</v>
-      </c>
-      <c r="G89" s="1">
-        <v>20</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J89" s="1">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="1">
-        <v>1246543</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>137879557.90000001</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>137879557.90000001</v>
-      </c>
-      <c r="O90" s="1">
-        <v>242363.47082399999</v>
-      </c>
-      <c r="P90" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S90" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1">
-        <v>1743680</v>
+        <v>12793.5</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>2092.4885065399999</v>
       </c>
       <c r="D91" s="1">
-        <v>680510369.79999995</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>65</v>
+        <v>446139</v>
+      </c>
+      <c r="E91" s="1">
+        <v>446139</v>
+      </c>
+      <c r="F91" s="1">
+        <v>125118.752373</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>65</v>
@@ -30323,14 +30245,14 @@
       <c r="M91" s="1">
         <v>0</v>
       </c>
-      <c r="N91" s="1">
-        <v>680510369.79999995</v>
-      </c>
-      <c r="O91" s="1">
-        <v>2552651.15319</v>
+      <c r="N91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P91" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>65</v>
@@ -30343,17 +30265,17 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A92" s="60" t="s">
-        <v>109</v>
+      <c r="A92" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B92" s="1">
-        <v>250199.15</v>
+        <v>1246543</v>
       </c>
       <c r="C92" s="1">
-        <v>268.14031308300002</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>185266449.09999999</v>
+        <v>138420993</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>65</v>
@@ -30383,10 +30305,10 @@
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <v>185266449.09999999</v>
+        <v>138420993</v>
       </c>
       <c r="O92" s="1">
-        <v>3425119.9795200001</v>
+        <v>302661.50729099999</v>
       </c>
       <c r="P92" s="1">
         <v>20</v>
@@ -30403,16 +30325,16 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1">
-        <v>3734178</v>
+        <v>1743680</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>91188450.200000003</v>
+        <v>685987432.64999998</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>65</v>
@@ -30432,24 +30354,24 @@
       <c r="J93" s="1">
         <v>0</v>
       </c>
-      <c r="K93" s="1">
-        <v>91188450.200000003</v>
-      </c>
-      <c r="L93" s="1">
-        <v>157836.24085999999</v>
+      <c r="K93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>685987432.64999998</v>
+      </c>
+      <c r="O93" s="1">
+        <v>7357614.8549100002</v>
+      </c>
+      <c r="P93" s="1">
         <v>20</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0</v>
-      </c>
       <c r="Q93" s="1" t="s">
         <v>65</v>
       </c>
@@ -30461,17 +30383,17 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A94" s="60" t="s">
-        <v>136</v>
+      <c r="A94" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B94" s="1">
-        <v>3734178</v>
+        <v>250176.15</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>238.53915297099999</v>
       </c>
       <c r="D94" s="1">
-        <v>122898752.40000001</v>
+        <v>182334324.65000001</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>65</v>
@@ -30501,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <v>122898752.40000001</v>
+        <v>182334324.65000001</v>
       </c>
       <c r="O94" s="1">
-        <v>597196.00190399995</v>
+        <v>1164610.5374</v>
       </c>
       <c r="P94" s="1">
         <v>20</v>
@@ -30520,17 +30442,17 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A95" s="104" t="s">
-        <v>156</v>
+      <c r="A95" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B95" s="1">
-        <v>343437.95</v>
+        <v>3734178</v>
       </c>
       <c r="C95" s="1">
-        <v>2145.5323925500002</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>218979858.84999999</v>
+        <v>92051143.049999997</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>65</v>
@@ -30550,23 +30472,23 @@
       <c r="J95" s="1">
         <v>0</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>65</v>
+      <c r="K95" s="1">
+        <v>92051143.049999997</v>
+      </c>
+      <c r="L95" s="1">
+        <v>164569.47379600001</v>
       </c>
       <c r="M95" s="1">
-        <v>0</v>
-      </c>
-      <c r="N95" s="1">
-        <v>218979858.84999999</v>
-      </c>
-      <c r="O95" s="1">
-        <v>1990304.1872400001</v>
+        <v>20</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P95" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>65</v>
@@ -30580,16 +30502,16 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1">
-        <v>760045.7</v>
+        <v>3734178</v>
       </c>
       <c r="C96" s="1">
-        <v>2193.3061368600002</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>202273047.34999999</v>
+        <v>111690741.05</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>65</v>
@@ -30619,10 +30541,10 @@
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <v>202273047.34999999</v>
+        <v>111690741.05</v>
       </c>
       <c r="O96" s="1">
-        <v>627517.55735200003</v>
+        <v>389581.99080099998</v>
       </c>
       <c r="P96" s="1">
         <v>20</v>
@@ -30638,17 +30560,17 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>247</v>
+      <c r="A97" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="B97" s="1">
-        <v>3734178</v>
+        <v>343253.4</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>1904.5675992199999</v>
       </c>
       <c r="D97" s="1">
-        <v>934318609.25</v>
+        <v>270780981.10000002</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>65</v>
@@ -30678,10 +30600,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <v>934318609.25</v>
+        <v>270780981.10000002</v>
       </c>
       <c r="O97" s="1">
-        <v>79770.816596000004</v>
+        <v>3196279.5541099999</v>
       </c>
       <c r="P97" s="1">
         <v>20</v>
@@ -30698,163 +30620,239 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="1">
+        <v>759964.8</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2109.8690859899998</v>
+      </c>
+      <c r="D98" s="1">
+        <v>202206301.94999999</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>202206301.94999999</v>
+      </c>
+      <c r="O98" s="1">
+        <v>620967.70079599996</v>
+      </c>
+      <c r="P98" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>937723312.25</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>937723312.25</v>
+      </c>
+      <c r="O99" s="1">
+        <v>156706.873269</v>
+      </c>
+      <c r="P99" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="1">
-        <v>15109.15</v>
-      </c>
-      <c r="C98" s="1">
-        <v>11412.752154</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1735275.65</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>1735275.65</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1012445.73864</v>
-      </c>
-      <c r="J98" s="1">
+      <c r="B100" s="1">
+        <v>14421.6</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10967.068447899999</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1867272.7</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1867272.7</v>
+      </c>
+      <c r="I100" s="1">
+        <v>982103.61457600002</v>
+      </c>
+      <c r="J100" s="1">
         <v>20</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A99" s="104" t="s">
+      <c r="K100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="1">
-        <v>4572.8999999999996</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3108.7977402800002</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2891925.8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>2891925.8</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1832261.8129199999</v>
-      </c>
-      <c r="J99" s="1">
+      <c r="B101" s="1">
+        <v>4523.8999999999996</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2814.6333668900002</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2926998.75</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2926998.75</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1657948.61409</v>
+      </c>
+      <c r="J101" s="1">
         <v>20</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M99" s="1">
-        <v>0</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
@@ -30877,204 +30875,128 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="104" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A104" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B104" s="68" t="s">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="106" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A106" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C104" s="68" t="s">
+      <c r="C106" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D106" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="69" t="s">
+      <c r="E106" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I106" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="J106" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F104" s="68" t="s">
+      <c r="K106" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G104" s="70" t="s">
+      <c r="L106" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H104" s="69" t="s">
+      <c r="M106" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I104" s="68" t="s">
+      <c r="N106" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="J104" s="70" t="s">
+      <c r="O106" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="K104" s="69" t="s">
+      <c r="P106" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L104" s="68" t="s">
+      <c r="Q106" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="M104" s="70" t="s">
+      <c r="R106" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="N104" s="69" t="s">
+      <c r="S106" s="70" t="s">
         <v>233</v>
-      </c>
-      <c r="O104" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="P104" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q104" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="R104" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="S104" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="1">
-        <v>12094.15</v>
-      </c>
-      <c r="C105" s="1">
-        <v>3313.8888073500002</v>
-      </c>
-      <c r="D105" s="1">
-        <v>459055.3</v>
-      </c>
-      <c r="E105" s="1">
-        <v>390753.61111100001</v>
-      </c>
-      <c r="F105" s="1">
-        <v>85515.699784800003</v>
-      </c>
-      <c r="G105" s="1">
-        <v>18</v>
-      </c>
-      <c r="H105" s="1">
-        <v>1073770.5</v>
-      </c>
-      <c r="I105" s="1">
-        <v>66074.5</v>
-      </c>
-      <c r="J105" s="1">
-        <v>2</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M105" s="1">
-        <v>0</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1246543</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1">
-        <v>120176666.65000001</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J106" s="1">
-        <v>0</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M106" s="1">
-        <v>0</v>
-      </c>
-      <c r="N106" s="1">
-        <v>120176666.65000001</v>
-      </c>
-      <c r="O106" s="1">
-        <v>247956.30541100001</v>
-      </c>
-      <c r="P106" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S106" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B107" s="1">
-        <v>1743680</v>
+        <v>11674</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>2865.7444059099998</v>
       </c>
       <c r="D107" s="1">
-        <v>679309501.95000005</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>65</v>
+        <v>417532.8</v>
+      </c>
+      <c r="E107" s="1">
+        <v>417532.8</v>
+      </c>
+      <c r="F107" s="1">
+        <v>161377.22795299999</v>
       </c>
       <c r="G107" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>65</v>
@@ -31094,14 +31016,14 @@
       <c r="M107" s="1">
         <v>0</v>
       </c>
-      <c r="N107" s="1">
-        <v>679309501.95000005</v>
-      </c>
-      <c r="O107" s="1">
-        <v>2543617.4725899999</v>
+      <c r="N107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P107" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>65</v>
@@ -31114,17 +31036,17 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>109</v>
+      <c r="A108" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="B108" s="1">
-        <v>250262.2</v>
+        <v>1246543</v>
       </c>
       <c r="C108" s="1">
-        <v>435.20415898700003</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>188424812.30000001</v>
+        <v>121298229.25</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>65</v>
@@ -31154,10 +31076,10 @@
         <v>0</v>
       </c>
       <c r="N108" s="1">
-        <v>188424812.30000001</v>
+        <v>121298229.25</v>
       </c>
       <c r="O108" s="1">
-        <v>3321088.0290799998</v>
+        <v>433006.65994699998</v>
       </c>
       <c r="P108" s="1">
         <v>20</v>
@@ -31173,17 +31095,17 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>137</v>
+      <c r="A109" s="90" t="s">
+        <v>243</v>
       </c>
       <c r="B109" s="1">
-        <v>3734178</v>
+        <v>1743680</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>91757137.650000006</v>
+        <v>673495477</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>65</v>
@@ -31203,24 +31125,24 @@
       <c r="J109" s="1">
         <v>0</v>
       </c>
-      <c r="K109" s="1">
-        <v>91757137.650000006</v>
-      </c>
-      <c r="L109" s="1">
-        <v>265556.59890500002</v>
+      <c r="K109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>673495477</v>
+      </c>
+      <c r="O109" s="1">
+        <v>3462469.0229199999</v>
+      </c>
+      <c r="P109" s="1">
         <v>20</v>
       </c>
-      <c r="N109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P109" s="1">
-        <v>0</v>
-      </c>
       <c r="Q109" s="1" t="s">
         <v>65</v>
       </c>
@@ -31232,17 +31154,17 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A110" s="60" t="s">
-        <v>136</v>
+      <c r="A110" s="89" t="s">
+        <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>3734178</v>
+        <v>250209.05</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>351.77414273900001</v>
       </c>
       <c r="D110" s="1">
-        <v>116656020</v>
+        <v>192479803.5</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>65</v>
@@ -31272,10 +31194,10 @@
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <v>116656020</v>
+        <v>192479803.5</v>
       </c>
       <c r="O110" s="1">
-        <v>464048.45373399998</v>
+        <v>2724220.9729599999</v>
       </c>
       <c r="P110" s="1">
         <v>20</v>
@@ -31291,17 +31213,17 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A111" s="60" t="s">
-        <v>156</v>
+      <c r="A111" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B111" s="1">
-        <v>343945.5</v>
+        <v>3734178</v>
       </c>
       <c r="C111" s="1">
-        <v>3483.7597864999998</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>221281446.34999999</v>
+        <v>91353490.5</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>65</v>
@@ -31321,23 +31243,23 @@
       <c r="J111" s="1">
         <v>0</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>65</v>
+      <c r="K111" s="1">
+        <v>91353490.5</v>
+      </c>
+      <c r="L111" s="1">
+        <v>136056.27160099999</v>
       </c>
       <c r="M111" s="1">
-        <v>0</v>
-      </c>
-      <c r="N111" s="1">
-        <v>221281446.34999999</v>
-      </c>
-      <c r="O111" s="1">
-        <v>2122380.6397699998</v>
+        <v>20</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="P111" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>65</v>
@@ -31351,16 +31273,16 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>759272.55</v>
+        <v>3734178</v>
       </c>
       <c r="C112" s="1">
-        <v>3339.4409782900002</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>202060066.59999999</v>
+        <v>104170300.65000001</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>65</v>
@@ -31390,10 +31312,10 @@
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <v>202060066.59999999</v>
+        <v>104170300.65000001</v>
       </c>
       <c r="O112" s="1">
-        <v>968248.44872600003</v>
+        <v>553783.05394400004</v>
       </c>
       <c r="P112" s="1">
         <v>20</v>
@@ -31409,17 +31331,17 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>247</v>
+      <c r="A113" s="89" t="s">
+        <v>156</v>
       </c>
       <c r="B113" s="1">
-        <v>3734178</v>
+        <v>343520.25</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>2810.5973720000002</v>
       </c>
       <c r="D113" s="1">
-        <v>934588721.35000002</v>
+        <v>272769227.05000001</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>65</v>
@@ -31449,10 +31371,10 @@
         <v>0</v>
       </c>
       <c r="N113" s="1">
-        <v>934588721.35000002</v>
+        <v>272769227.05000001</v>
       </c>
       <c r="O113" s="1">
-        <v>139610.210276</v>
+        <v>3103587.9679399999</v>
       </c>
       <c r="P113" s="1">
         <v>20</v>
@@ -31469,16 +31391,16 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="B114" s="1">
-        <v>17525.05</v>
+        <v>758847.3</v>
       </c>
       <c r="C114" s="1">
-        <v>17819.439998099999</v>
+        <v>2889.2208655600002</v>
       </c>
       <c r="D114" s="1">
-        <v>1952105.6</v>
+        <v>201895901.5</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>65</v>
@@ -31489,32 +31411,32 @@
       <c r="G114" s="1">
         <v>0</v>
       </c>
-      <c r="H114" s="1">
-        <v>1952105.6</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1596201.4290400001</v>
+      <c r="H114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>201895901.5</v>
+      </c>
+      <c r="O114" s="1">
+        <v>824015.98226199998</v>
+      </c>
+      <c r="P114" s="1">
         <v>20</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M114" s="1">
-        <v>0</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P114" s="1">
-        <v>0</v>
       </c>
       <c r="Q114" s="1" t="s">
         <v>65</v>
@@ -31528,83 +31450,201 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3734178</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>937649290.20000005</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>937649290.20000005</v>
+      </c>
+      <c r="O115" s="1">
+        <v>153021.918493</v>
+      </c>
+      <c r="P115" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="1">
+        <v>15350.85</v>
+      </c>
+      <c r="C116" s="1">
+        <v>15151.368952299999</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1779716</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1779716</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1362401.45413</v>
+      </c>
+      <c r="J116" s="1">
+        <v>20</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B115" s="1">
-        <v>5167.8</v>
-      </c>
-      <c r="C115" s="1">
-        <v>4874.7947608100003</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3249182.7</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0</v>
-      </c>
-      <c r="H115" s="1">
-        <v>2359617.2777800001</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1032426.9185199999</v>
-      </c>
-      <c r="J115" s="1">
-        <v>18</v>
-      </c>
-      <c r="K115" s="1">
-        <v>11255271.5</v>
-      </c>
-      <c r="L115" s="1">
-        <v>843484.5</v>
-      </c>
-      <c r="M115" s="1">
-        <v>2</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P115" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
+      <c r="B117" s="1">
+        <v>4575.8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4126.38606531</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2916254.95</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>2522622.6315799998</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1763858.5467300001</v>
+      </c>
+      <c r="J117" s="1">
+        <v>19</v>
+      </c>
+      <c r="K117" s="1">
+        <v>10395269</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ssh" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="lmbench_latency" sheetId="5" r:id="rId6"/>
     <sheet name="sshd_latency_new" sheetId="13" r:id="rId7"/>
     <sheet name="postmark" sheetId="14" r:id="rId8"/>
+    <sheet name="compilation" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="255">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -788,6 +789,15 @@
   <si>
     <t>svaKernel_opt_mmuChecks</t>
   </si>
+  <si>
+    <t>compiling libc: 10 rounds of execution</t>
+  </si>
+  <si>
+    <t>compiling kernel: 10 rounds of execution</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
@@ -796,7 +806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1025,13 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1387,7 +1404,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1533,6 +1550,7 @@
     </xf>
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,7 +1599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -8380,11 +8401,11 @@
       <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -8813,11 +8834,11 @@
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -9246,11 +9267,11 @@
       <c r="D39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="91" t="s">
+      <c r="E39" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -9696,14 +9717,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
@@ -10030,14 +10051,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="91"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
@@ -10402,20 +10423,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
@@ -11013,20 +11034,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="98" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
@@ -11895,23 +11916,23 @@
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
     </row>
     <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -12749,23 +12770,23 @@
       <c r="A32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
     </row>
     <row r="33" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -13775,23 +13796,23 @@
       <c r="A62" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="102"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
     </row>
     <row r="63" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -14626,23 +14647,23 @@
       <c r="A79" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="102" t="s">
+      <c r="E79" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="102"/>
-      <c r="J79" s="102"/>
-      <c r="K79" s="102"/>
-      <c r="L79" s="102"/>
-      <c r="M79" s="102"/>
-      <c r="N79" s="102"/>
-      <c r="O79" s="102"/>
-      <c r="P79" s="102"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="102"/>
-      <c r="S79" s="102"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="103"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="103"/>
+      <c r="N79" s="103"/>
+      <c r="O79" s="103"/>
+      <c r="P79" s="103"/>
+      <c r="Q79" s="103"/>
+      <c r="R79" s="103"/>
+      <c r="S79" s="103"/>
     </row>
     <row r="80" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -15839,23 +15860,23 @@
       <c r="A126" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="102" t="s">
+      <c r="E126" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="102"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="102"/>
-      <c r="M126" s="102"/>
-      <c r="N126" s="102"/>
-      <c r="O126" s="102"/>
-      <c r="P126" s="102"/>
-      <c r="Q126" s="102"/>
-      <c r="R126" s="102"/>
-      <c r="S126" s="102"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="103"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="103"/>
+      <c r="J126" s="103"/>
+      <c r="K126" s="103"/>
+      <c r="L126" s="103"/>
+      <c r="M126" s="103"/>
+      <c r="N126" s="103"/>
+      <c r="O126" s="103"/>
+      <c r="P126" s="103"/>
+      <c r="Q126" s="103"/>
+      <c r="R126" s="103"/>
+      <c r="S126" s="103"/>
     </row>
     <row r="127" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
@@ -16634,23 +16655,23 @@
       <c r="A141" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E141" s="102" t="s">
+      <c r="E141" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="102"/>
-      <c r="G141" s="102"/>
-      <c r="H141" s="102"/>
-      <c r="I141" s="102"/>
-      <c r="J141" s="102"/>
-      <c r="K141" s="102"/>
-      <c r="L141" s="102"/>
-      <c r="M141" s="102"/>
-      <c r="N141" s="102"/>
-      <c r="O141" s="102"/>
-      <c r="P141" s="102"/>
-      <c r="Q141" s="102"/>
-      <c r="R141" s="102"/>
-      <c r="S141" s="102"/>
+      <c r="F141" s="103"/>
+      <c r="G141" s="103"/>
+      <c r="H141" s="103"/>
+      <c r="I141" s="103"/>
+      <c r="J141" s="103"/>
+      <c r="K141" s="103"/>
+      <c r="L141" s="103"/>
+      <c r="M141" s="103"/>
+      <c r="N141" s="103"/>
+      <c r="O141" s="103"/>
+      <c r="P141" s="103"/>
+      <c r="Q141" s="103"/>
+      <c r="R141" s="103"/>
+      <c r="S141" s="103"/>
     </row>
     <row r="142" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
@@ -17768,23 +17789,23 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="103" t="s">
+      <c r="E167" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F167" s="103"/>
-      <c r="G167" s="103"/>
-      <c r="H167" s="103"/>
-      <c r="I167" s="103"/>
-      <c r="J167" s="103"/>
-      <c r="K167" s="103"/>
-      <c r="L167" s="103"/>
-      <c r="M167" s="103"/>
-      <c r="N167" s="103"/>
-      <c r="O167" s="103"/>
-      <c r="P167" s="103"/>
-      <c r="Q167" s="103"/>
-      <c r="R167" s="103"/>
-      <c r="S167" s="103"/>
+      <c r="F167" s="104"/>
+      <c r="G167" s="104"/>
+      <c r="H167" s="104"/>
+      <c r="I167" s="104"/>
+      <c r="J167" s="104"/>
+      <c r="K167" s="104"/>
+      <c r="L167" s="104"/>
+      <c r="M167" s="104"/>
+      <c r="N167" s="104"/>
+      <c r="O167" s="104"/>
+      <c r="P167" s="104"/>
+      <c r="Q167" s="104"/>
+      <c r="R167" s="104"/>
+      <c r="S167" s="104"/>
     </row>
     <row r="168" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
@@ -18328,23 +18349,23 @@
       <c r="A186" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="102" t="s">
+      <c r="E186" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F186" s="102"/>
-      <c r="G186" s="102"/>
-      <c r="H186" s="102"/>
-      <c r="I186" s="102"/>
-      <c r="J186" s="102"/>
-      <c r="K186" s="102"/>
-      <c r="L186" s="102"/>
-      <c r="M186" s="102"/>
-      <c r="N186" s="102"/>
-      <c r="O186" s="102"/>
-      <c r="P186" s="102"/>
-      <c r="Q186" s="102"/>
-      <c r="R186" s="102"/>
-      <c r="S186" s="102"/>
+      <c r="F186" s="103"/>
+      <c r="G186" s="103"/>
+      <c r="H186" s="103"/>
+      <c r="I186" s="103"/>
+      <c r="J186" s="103"/>
+      <c r="K186" s="103"/>
+      <c r="L186" s="103"/>
+      <c r="M186" s="103"/>
+      <c r="N186" s="103"/>
+      <c r="O186" s="103"/>
+      <c r="P186" s="103"/>
+      <c r="Q186" s="103"/>
+      <c r="R186" s="103"/>
+      <c r="S186" s="103"/>
     </row>
     <row r="187" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
@@ -18470,19 +18491,19 @@
       </c>
     </row>
     <row r="194" spans="1:4" s="83" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="102" t="s">
+      <c r="B194" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="102" t="s">
+      <c r="C194" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="102"/>
+      <c r="D194" s="103"/>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="102"/>
+      <c r="B195" s="103"/>
       <c r="C195" s="2" t="s">
         <v>185</v>
       </c>
@@ -18576,16 +18597,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E167:S167"/>
+    <mergeCell ref="E186:S186"/>
+    <mergeCell ref="E141:S141"/>
     <mergeCell ref="E15:S15"/>
     <mergeCell ref="E32:S32"/>
     <mergeCell ref="E62:S62"/>
     <mergeCell ref="E79:S79"/>
     <mergeCell ref="E126:S126"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E167:S167"/>
-    <mergeCell ref="E186:S186"/>
-    <mergeCell ref="E141:S141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18620,23 +18641,23 @@
       <c r="A1" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="44"/>
@@ -19269,11 +19290,11 @@
       <c r="A25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40" t="s">
@@ -19496,14 +19517,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="106"/>
+      <c r="E40" s="107"/>
     </row>
     <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
@@ -19678,7 +19699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
@@ -19709,23 +19730,23 @@
       <c r="A2" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -19880,14 +19901,14 @@
       <c r="C7" s="83"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
@@ -20168,23 +20189,23 @@
       <c r="A34" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
     </row>
     <row r="35" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="83" t="s">
@@ -22027,23 +22048,23 @@
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="102" t="s">
+      <c r="E70" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="102"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="102"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="102"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="103"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="103"/>
     </row>
     <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A71" s="83" t="s">
@@ -24293,7 +24314,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A112" s="107" t="s">
+      <c r="A112" s="91" t="s">
         <v>136</v>
       </c>
       <c r="B112" s="1">
@@ -31650,4 +31671,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A1" s="108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="44.25" x14ac:dyDescent="0.65">
+      <c r="A2" s="109"/>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>237607384207</v>
+      </c>
+      <c r="C3" s="1">
+        <v>109780857.443</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="1">
+        <v>260207926934</v>
+      </c>
+      <c r="C4" s="1">
+        <v>850451482.56900001</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/B3</f>
+        <v>1.0951171732411764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1">
+        <v>264787867362</v>
+      </c>
+      <c r="C5" s="1">
+        <v>149144238.44</v>
+      </c>
+      <c r="D5" s="1">
+        <f>B5/B3</f>
+        <v>1.1143924177512967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1">
+        <v>281609621402</v>
+      </c>
+      <c r="C6" s="1">
+        <v>174845541.53799999</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/B3</f>
+        <v>1.1851888456322801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1">
+        <v>286462916721</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1057512634.41</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/B3</f>
+        <v>1.2056145379364043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>295055296920</v>
+      </c>
+      <c r="C8" s="1">
+        <v>141212480.92399999</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8/B3</f>
+        <v>1.241776630405359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A11" s="108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1864313933090</v>
+      </c>
+      <c r="C13" s="83">
+        <v>409164624.30299997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1937143909450</v>
+      </c>
+      <c r="C14" s="83">
+        <v>463422522.74199998</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14/B13</f>
+        <v>1.0390652963899101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2043667226810</v>
+      </c>
+      <c r="C15" s="83">
+        <v>572298438.24899995</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15/B13</f>
+        <v>1.0962033756958152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2069036104130</v>
+      </c>
+      <c r="C16" s="83">
+        <v>375160414.21899998</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16/B13</f>
+        <v>1.1098109966386853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="257">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -796,7 +796,13 @@
     <t>compiling kernel: 10 rounds of execution</t>
   </si>
   <si>
-    <t>average</t>
+    <t>average (cycles)</t>
+  </si>
+  <si>
+    <t>sva_icontext_restart</t>
+  </si>
+  <si>
+    <t>SVA-OS API overhead (10 rounds)</t>
   </si>
 </sst>
 </file>
@@ -1551,6 +1557,10 @@
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1598,10 +1608,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -8401,11 +8407,11 @@
       <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -8834,11 +8840,11 @@
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -9267,11 +9273,11 @@
       <c r="D39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="92" t="s">
+      <c r="E39" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -9717,14 +9723,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="92"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
@@ -10051,14 +10057,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="94"/>
     </row>
     <row r="22" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
@@ -10423,20 +10429,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
@@ -11034,20 +11040,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="99" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
@@ -11916,23 +11922,23 @@
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
     </row>
     <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -12770,23 +12776,23 @@
       <c r="A32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
     </row>
     <row r="33" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -13796,23 +13802,23 @@
       <c r="A62" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="103" t="s">
+      <c r="E62" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
+      <c r="R62" s="105"/>
+      <c r="S62" s="105"/>
     </row>
     <row r="63" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -14647,23 +14653,23 @@
       <c r="A79" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="103" t="s">
+      <c r="E79" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="103"/>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="103"/>
-      <c r="R79" s="103"/>
-      <c r="S79" s="103"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="105"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="105"/>
+      <c r="R79" s="105"/>
+      <c r="S79" s="105"/>
     </row>
     <row r="80" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -15860,23 +15866,23 @@
       <c r="A126" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="103" t="s">
+      <c r="E126" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="103"/>
-      <c r="K126" s="103"/>
-      <c r="L126" s="103"/>
-      <c r="M126" s="103"/>
-      <c r="N126" s="103"/>
-      <c r="O126" s="103"/>
-      <c r="P126" s="103"/>
-      <c r="Q126" s="103"/>
-      <c r="R126" s="103"/>
-      <c r="S126" s="103"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="105"/>
+      <c r="M126" s="105"/>
+      <c r="N126" s="105"/>
+      <c r="O126" s="105"/>
+      <c r="P126" s="105"/>
+      <c r="Q126" s="105"/>
+      <c r="R126" s="105"/>
+      <c r="S126" s="105"/>
     </row>
     <row r="127" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
@@ -16655,23 +16661,23 @@
       <c r="A141" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E141" s="103" t="s">
+      <c r="E141" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="103"/>
-      <c r="G141" s="103"/>
-      <c r="H141" s="103"/>
-      <c r="I141" s="103"/>
-      <c r="J141" s="103"/>
-      <c r="K141" s="103"/>
-      <c r="L141" s="103"/>
-      <c r="M141" s="103"/>
-      <c r="N141" s="103"/>
-      <c r="O141" s="103"/>
-      <c r="P141" s="103"/>
-      <c r="Q141" s="103"/>
-      <c r="R141" s="103"/>
-      <c r="S141" s="103"/>
+      <c r="F141" s="105"/>
+      <c r="G141" s="105"/>
+      <c r="H141" s="105"/>
+      <c r="I141" s="105"/>
+      <c r="J141" s="105"/>
+      <c r="K141" s="105"/>
+      <c r="L141" s="105"/>
+      <c r="M141" s="105"/>
+      <c r="N141" s="105"/>
+      <c r="O141" s="105"/>
+      <c r="P141" s="105"/>
+      <c r="Q141" s="105"/>
+      <c r="R141" s="105"/>
+      <c r="S141" s="105"/>
     </row>
     <row r="142" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
@@ -17789,23 +17795,23 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="104" t="s">
+      <c r="E167" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="F167" s="104"/>
-      <c r="G167" s="104"/>
-      <c r="H167" s="104"/>
-      <c r="I167" s="104"/>
-      <c r="J167" s="104"/>
-      <c r="K167" s="104"/>
-      <c r="L167" s="104"/>
-      <c r="M167" s="104"/>
-      <c r="N167" s="104"/>
-      <c r="O167" s="104"/>
-      <c r="P167" s="104"/>
-      <c r="Q167" s="104"/>
-      <c r="R167" s="104"/>
-      <c r="S167" s="104"/>
+      <c r="F167" s="106"/>
+      <c r="G167" s="106"/>
+      <c r="H167" s="106"/>
+      <c r="I167" s="106"/>
+      <c r="J167" s="106"/>
+      <c r="K167" s="106"/>
+      <c r="L167" s="106"/>
+      <c r="M167" s="106"/>
+      <c r="N167" s="106"/>
+      <c r="O167" s="106"/>
+      <c r="P167" s="106"/>
+      <c r="Q167" s="106"/>
+      <c r="R167" s="106"/>
+      <c r="S167" s="106"/>
     </row>
     <row r="168" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
@@ -18349,23 +18355,23 @@
       <c r="A186" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="103" t="s">
+      <c r="E186" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F186" s="103"/>
-      <c r="G186" s="103"/>
-      <c r="H186" s="103"/>
-      <c r="I186" s="103"/>
-      <c r="J186" s="103"/>
-      <c r="K186" s="103"/>
-      <c r="L186" s="103"/>
-      <c r="M186" s="103"/>
-      <c r="N186" s="103"/>
-      <c r="O186" s="103"/>
-      <c r="P186" s="103"/>
-      <c r="Q186" s="103"/>
-      <c r="R186" s="103"/>
-      <c r="S186" s="103"/>
+      <c r="F186" s="105"/>
+      <c r="G186" s="105"/>
+      <c r="H186" s="105"/>
+      <c r="I186" s="105"/>
+      <c r="J186" s="105"/>
+      <c r="K186" s="105"/>
+      <c r="L186" s="105"/>
+      <c r="M186" s="105"/>
+      <c r="N186" s="105"/>
+      <c r="O186" s="105"/>
+      <c r="P186" s="105"/>
+      <c r="Q186" s="105"/>
+      <c r="R186" s="105"/>
+      <c r="S186" s="105"/>
     </row>
     <row r="187" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
@@ -18491,19 +18497,19 @@
       </c>
     </row>
     <row r="194" spans="1:4" s="83" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="103" t="s">
+      <c r="B194" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="103" t="s">
+      <c r="C194" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="103"/>
+      <c r="D194" s="105"/>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="103"/>
+      <c r="B195" s="105"/>
       <c r="C195" s="2" t="s">
         <v>185</v>
       </c>
@@ -18641,23 +18647,23 @@
       <c r="A1" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="44"/>
@@ -19290,11 +19296,11 @@
       <c r="A25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40" t="s">
@@ -19517,14 +19523,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107" t="s">
+      <c r="C40" s="109"/>
+      <c r="D40" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="109"/>
     </row>
     <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
@@ -19730,23 +19736,23 @@
       <c r="A2" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
     </row>
     <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -19901,14 +19907,14 @@
       <c r="C7" s="83"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
@@ -20189,23 +20195,23 @@
       <c r="A34" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
     </row>
     <row r="35" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="83" t="s">
@@ -22048,23 +22054,23 @@
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="103" t="s">
+      <c r="E70" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="103"/>
-      <c r="S70" s="103"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="105"/>
+      <c r="R70" s="105"/>
+      <c r="S70" s="105"/>
     </row>
     <row r="71" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A71" s="83" t="s">
@@ -26436,7 +26442,7 @@
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="B106" sqref="B106:S106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31675,27 +31681,42 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="28.9296875" customWidth="1"/>
     <col min="2" max="2" width="22.73046875" customWidth="1"/>
     <col min="3" max="3" width="18.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="92" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="44.25" x14ac:dyDescent="0.65">
-      <c r="A2" s="109"/>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.65">
+      <c r="A2" s="93"/>
       <c r="B2" s="2" t="s">
         <v>254</v>
       </c>
@@ -31796,7 +31817,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="92" t="s">
         <v>253</v>
       </c>
     </row>
@@ -31868,6 +31889,2012 @@
       <c r="D16" s="1">
         <f>B16/B13</f>
         <v>1.1098109966386853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="101.25" x14ac:dyDescent="0.65">
+      <c r="A20" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="R20" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="S20" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1379878</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>379896975.10000002</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>379896975.10000002</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1061144.86207</v>
+      </c>
+      <c r="P21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10984034.199999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>159.16582547799999</v>
+      </c>
+      <c r="D22" s="50">
+        <v>6633324394.5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6633324394.5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>7881499.3934199996</v>
+      </c>
+      <c r="S22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19261</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4342016.9000000004</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4342016.9000000004</v>
+      </c>
+      <c r="I23" s="1">
+        <v>93466.898692999996</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1">
+        <v>199644</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>118933246.3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>118933246.3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>229479.7764</v>
+      </c>
+      <c r="P24" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2973481.3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>225.43648773000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.8446713395000001E+19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1.8446713395000001E+19</v>
+      </c>
+      <c r="R25" s="1">
+        <v>141741503.49000001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19261</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4454119</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4454119</v>
+      </c>
+      <c r="I26" s="1">
+        <v>52490.375996000002</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2956427.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>225.43648773000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>77540426</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>77540426</v>
+      </c>
+      <c r="L27" s="1">
+        <v>231801.547567</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1">
+        <v>57927</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>64983801.399999999</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>64983801.399999999</v>
+      </c>
+      <c r="L28" s="1">
+        <v>176524.10904899999</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1">
+        <v>310628</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>186126828</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>186126828</v>
+      </c>
+      <c r="O29" s="1">
+        <v>326639.99599700002</v>
+      </c>
+      <c r="P29" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15301</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>19494045.199999999</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>19494045.199999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>60879.395187200003</v>
+      </c>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7464672.2999999998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>811.14943752700003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>173490238</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>173490238</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1027345.74816</v>
+      </c>
+      <c r="P31" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>196828.2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>196828.2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1930.0818531899999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2910770.8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2910770.8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>33868.4330367</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1">
+        <v>106934.6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.8705400188799999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>699300138.29999995</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>699300138.29999995</v>
+      </c>
+      <c r="O34" s="1">
+        <v>916494.88543999998</v>
+      </c>
+      <c r="P34" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2973481.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>225.43648773000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>78148631.599999994</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>78148631.599999994</v>
+      </c>
+      <c r="L35" s="1">
+        <v>482031.01325199998</v>
+      </c>
+      <c r="M35" s="1">
+        <v>10</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3070896.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>225.43648773000001</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1203556258</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1203556258</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4640030.3647699999</v>
+      </c>
+      <c r="S36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1234393.7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1234393.7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4302.7554671400003</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15301</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12104341.4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12104341.4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>62342.271535799999</v>
+      </c>
+      <c r="M38" s="1">
+        <v>10</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1">
+        <v>263792</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>186308778.5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>186308778.5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>180568.69031199999</v>
+      </c>
+      <c r="P39" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1">
+        <v>124702.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4215.1390072000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12828716.9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12828716.9</v>
+      </c>
+      <c r="L40" s="1">
+        <v>394485.17931799998</v>
+      </c>
+      <c r="M40" s="1">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15301</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1393404.4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1393404.4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6842.1333106000002</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4802481.8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4802481.8</v>
+      </c>
+      <c r="I42" s="1">
+        <v>349430.49752099998</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15301</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>896376.2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>896376.2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>29106.823409000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8527</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2020816.1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2020816.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>106241.25762800001</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3193</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1963353.7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1963353.7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9951.3806484300003</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="1">
+        <v>117121.60000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11.1013512691</v>
+      </c>
+      <c r="D46" s="1">
+        <v>435696158.89999998</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>435696158.89999998</v>
+      </c>
+      <c r="O46" s="1">
+        <v>747697.95514500001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="1">
+        <v>28771</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>27014392.100000001</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>27014392.100000001</v>
+      </c>
+      <c r="L47" s="1">
+        <v>27118.135999499998</v>
+      </c>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8274181.2999999998</v>
+      </c>
+      <c r="C48" s="1">
+        <v>916.18164683600003</v>
+      </c>
+      <c r="D48" s="50">
+        <v>2233605332</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>2233605332</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1259049.23147</v>
+      </c>
+      <c r="S48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1104</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3092628.9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3092628.9</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3773.4162889899999</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1">
+        <v>151946</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>166967028.30000001</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>166967028.30000001</v>
+      </c>
+      <c r="O50" s="1">
+        <v>285876.41657100001</v>
+      </c>
+      <c r="P50" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>115854</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>75394026.599999994</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>75394026.599999994</v>
+      </c>
+      <c r="L51" s="1">
+        <v>282224.22204700002</v>
+      </c>
+      <c r="M51" s="1">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1">
+        <v>38618</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>48554643.5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>48554643.5</v>
+      </c>
+      <c r="L52" s="1">
+        <v>99721.178953399998</v>
+      </c>
+      <c r="M52" s="1">
+        <v>10</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1">
+        <v>184022.6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1915.8769375899999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>117616718.59999999</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>117616718.59999999</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1184908.8873000001</v>
+      </c>
+      <c r="P53" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/vee_16.xlsx
+++ b/vee_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="9255" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ssh" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="postmark" sheetId="14" r:id="rId8"/>
     <sheet name="compilation" sheetId="15" r:id="rId9"/>
     <sheet name="summary-TLB-WP" sheetId="18" r:id="rId10"/>
+    <sheet name="kernel-op-latency" sheetId="21" r:id="rId11"/>
+    <sheet name="macrobench_wp" sheetId="20" r:id="rId12"/>
+    <sheet name="pap" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="378">
   <si>
     <t>nullSyscall</t>
   </si>
@@ -991,6 +994,183 @@
   <si>
     <t>svaKernel_nobatch (flush entire TLB without WP)</t>
   </si>
+  <si>
+    <t>time command output</t>
+  </si>
+  <si>
+    <t>postmark</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>with WP bit</t>
+  </si>
+  <si>
+    <t>without WP bit</t>
+  </si>
+  <si>
+    <t>null syscall</t>
+  </si>
+  <si>
+    <t>open/close</t>
+  </si>
+  <si>
+    <t>mmap</t>
+  </si>
+  <si>
+    <t>page fault</t>
+  </si>
+  <si>
+    <t>signal handler install</t>
+  </si>
+  <si>
+    <t>signal handler delivery</t>
+  </si>
+  <si>
+    <t>fork + exit</t>
+  </si>
+  <si>
+    <t>fork + exec</t>
+  </si>
+  <si>
+    <t>libc compilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sshd </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>With WP bit</t>
+  </si>
+  <si>
+    <t>Without WP bit</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>SVA-OS batch-mode API</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>batch version with WP</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>avg (second)</t>
+  </si>
+  <si>
+    <t>std (second)</t>
+  </si>
+  <si>
+    <t>unlink</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>lstat</t>
+  </si>
+  <si>
+    <t>fstat</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>lseek</t>
+  </si>
+  <si>
+    <t>execve</t>
+  </si>
+  <si>
+    <t>madvise</t>
+  </si>
+  <si>
+    <t>clock_gettime</t>
+  </si>
+  <si>
+    <t>sigprocmask</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>pread</t>
+  </si>
+  <si>
+    <t>munmap</t>
+  </si>
+  <si>
+    <t>readlink</t>
+  </si>
+  <si>
+    <t>issetugid</t>
+  </si>
+  <si>
+    <t>sysarch</t>
+  </si>
+  <si>
+    <t>ioctl</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>syscall</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>Postmark (aggregate results of 20 rounds)</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>svaKernel_no_instr</t>
+  </si>
+  <si>
+    <t>svaKernel_sfi</t>
+  </si>
+  <si>
+    <t>SVA-OS</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>Overhead(normalized to the baseline)</t>
+  </si>
+  <si>
+    <t>libc-compilation</t>
+  </si>
+  <si>
+    <t>SSHD ?</t>
+  </si>
 </sst>
 </file>
 
@@ -1424,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1737,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1604,7 +1804,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1793,6 +1993,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,6 +2056,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3306,6 +3520,307 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Overhead of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> enabling/disabling WP bit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pap!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>overhead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pap!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>postmark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>libc compilation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sshd </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pap!$D$14:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0131653208722931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0476055693976161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0537880198181984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B908-45FE-AA66-282324042A69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554112280"/>
+        <c:axId val="554112608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554112280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554112608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554112608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554112280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3347,6 +3862,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4392,6 +4947,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4409,7 +5478,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4439,7 +5514,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4454,6 +5535,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656236" cy="6285453"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8617,10 +9731,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E65" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65:Q74"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8921,29 +10035,29 @@
     </row>
     <row r="27" spans="1:14" ht="61.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125" t="s">
+      <c r="C27" s="130"/>
+      <c r="D27" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125" t="s">
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="124" t="s">
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124" t="s">
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="N27" s="124"/>
+      <c r="N27" s="129"/>
     </row>
     <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="98"/>
@@ -9706,34 +10820,34 @@
     </row>
     <row r="65" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="119" t="s">
+      <c r="C65" s="130"/>
+      <c r="D65" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119" t="s">
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119" t="s">
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119" t="s">
+      <c r="K65" s="124"/>
+      <c r="L65" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119" t="s">
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
+      <c r="P65" s="124"/>
+      <c r="Q65" s="124"/>
     </row>
     <row r="66" spans="1:17" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="98"/>
@@ -9829,7 +10943,7 @@
         <v>0.46169809356300001</v>
       </c>
       <c r="N67" s="1">
-        <f>L67/B67</f>
+        <f t="shared" ref="N67:N74" si="3">L67/B67</f>
         <v>1.0991099344063726</v>
       </c>
       <c r="O67" s="1">
@@ -9839,7 +10953,7 @@
         <v>0.59020417958500004</v>
       </c>
       <c r="Q67" s="1">
-        <f>O67/B67</f>
+        <f t="shared" ref="Q67:Q74" si="4">O67/B67</f>
         <v>1.0559082640700765</v>
       </c>
     </row>
@@ -9860,7 +10974,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F74" si="3">D68/B68</f>
+        <f t="shared" ref="F68:F74" si="5">D68/B68</f>
         <v>3.0301369863013701</v>
       </c>
       <c r="G68" s="1">
@@ -9870,7 +10984,7 @@
         <v>4.8989794855699998E-5</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" ref="I68:I74" si="4">G68/B68</f>
+        <f t="shared" ref="I68:I74" si="6">G68/B68</f>
         <v>3.0303860523038608</v>
       </c>
       <c r="J68" s="1">
@@ -9886,7 +11000,7 @@
         <v>4.8989794855699998E-5</v>
       </c>
       <c r="N68" s="1">
-        <f>L68/B68</f>
+        <f t="shared" si="3"/>
         <v>3.0094645080946454</v>
       </c>
       <c r="O68" s="1">
@@ -9896,7 +11010,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="Q68" s="1">
-        <f>O68/B68</f>
+        <f t="shared" si="4"/>
         <v>3.0093399750934</v>
       </c>
     </row>
@@ -9917,7 +11031,7 @@
         <v>1.35014814002E-3</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4437758781888608</v>
       </c>
       <c r="G69" s="1">
@@ -9927,7 +11041,7 @@
         <v>5.74696441611E-3</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4682649926539333</v>
       </c>
       <c r="J69" s="1">
@@ -9943,7 +11057,7 @@
         <v>1.28534042183E-3</v>
       </c>
       <c r="N69" s="1">
-        <f>L69/B69</f>
+        <f t="shared" si="3"/>
         <v>2.4011419794310136</v>
       </c>
       <c r="O69" s="1">
@@ -9953,7 +11067,7 @@
         <v>8.8275081421699993E-3</v>
       </c>
       <c r="Q69" s="1">
-        <f>O69/B69</f>
+        <f t="shared" si="4"/>
         <v>2.4190530252437559</v>
       </c>
     </row>
@@ -9974,7 +11088,7 @@
         <v>0.17357511803299999</v>
       </c>
       <c r="F70" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4494822842411859</v>
       </c>
       <c r="G70" s="1">
@@ -9984,7 +11098,7 @@
         <v>0.111077513926</v>
       </c>
       <c r="I70" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3129635219631974</v>
       </c>
       <c r="J70" s="50">
@@ -10000,7 +11114,7 @@
         <v>0.11365445041900001</v>
       </c>
       <c r="N70" s="1">
-        <f>L70/B70</f>
+        <f t="shared" si="3"/>
         <v>3.9312255821771314</v>
       </c>
       <c r="O70" s="1">
@@ -10010,7 +11124,7 @@
         <v>0.73489522253200001</v>
       </c>
       <c r="Q70" s="1">
-        <f>O70/B70</f>
+        <f t="shared" si="4"/>
         <v>2.3703194217725145</v>
       </c>
     </row>
@@ -10031,7 +11145,7 @@
         <v>0.152933036326</v>
       </c>
       <c r="F71" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4838303082195439</v>
       </c>
       <c r="G71" s="1">
@@ -10041,7 +11155,7 @@
         <v>6.02414807255E-2</v>
       </c>
       <c r="I71" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3356676853436191</v>
       </c>
       <c r="J71" s="50">
@@ -10057,7 +11171,7 @@
         <v>0.104613574645</v>
       </c>
       <c r="N71" s="1">
-        <f>L71/B71</f>
+        <f t="shared" si="3"/>
         <v>4.1097234149304382</v>
       </c>
       <c r="O71" s="1">
@@ -10067,7 +11181,7 @@
         <v>1.0695213774900001</v>
       </c>
       <c r="Q71" s="1">
-        <f>O71/B71</f>
+        <f t="shared" si="4"/>
         <v>2.4063798456192584</v>
       </c>
     </row>
@@ -10088,35 +11202,35 @@
         <v>2.22044604925E-16</v>
       </c>
       <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="50">
+        <v>6628990.5999999996</v>
+      </c>
+      <c r="K72" s="50">
+        <v>1924148.9351600001</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="N72" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G72" s="1">
-        <v>1.048576</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2.22044604925E-16</v>
-      </c>
-      <c r="I72" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="50">
-        <v>6628990.5999999996</v>
-      </c>
-      <c r="K72" s="50">
-        <v>1924148.9351600001</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1.048576</v>
-      </c>
-      <c r="M72" s="1">
-        <v>2.22044604925E-16</v>
-      </c>
-      <c r="N72" s="1">
-        <f>L72/B72</f>
-        <v>1</v>
-      </c>
       <c r="O72" s="1">
         <v>1.048576</v>
       </c>
@@ -10124,7 +11238,7 @@
         <v>2.22044604925E-16</v>
       </c>
       <c r="Q72" s="1">
-        <f>O72/B72</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10145,7 +11259,7 @@
         <v>2.8354893757500001E-4</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.98819196186762004</v>
       </c>
       <c r="G73" s="1">
@@ -10155,7 +11269,7 @@
         <v>1.2621014222299999E-3</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99042176723359698</v>
       </c>
       <c r="J73" s="1">
@@ -10171,7 +11285,7 @@
         <v>1.1634431657800001E-3</v>
       </c>
       <c r="N73" s="1">
-        <f>L73/B73</f>
+        <f t="shared" si="3"/>
         <v>0.98591701874119808</v>
       </c>
       <c r="O73" s="1">
@@ -10181,7 +11295,7 @@
         <v>8.8226980000399998E-4</v>
       </c>
       <c r="Q73" s="1">
-        <f>O73/B73</f>
+        <f t="shared" si="4"/>
         <v>0.98784891488823889</v>
       </c>
     </row>
@@ -10202,7 +11316,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4575798776342621</v>
       </c>
       <c r="G74" s="1">
@@ -10212,7 +11326,7 @@
         <v>5.5511151231299994E-17</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4581917063222294</v>
       </c>
       <c r="J74" s="1">
@@ -10228,7 +11342,7 @@
         <v>4.4721359549999997E-5</v>
       </c>
       <c r="N74" s="1">
-        <f>L74/B74</f>
+        <f t="shared" si="3"/>
         <v>2.4473147518694764</v>
       </c>
       <c r="O74" s="1">
@@ -10238,7 +11352,7 @@
         <v>4.8989794855699998E-5</v>
       </c>
       <c r="Q74" s="1">
-        <f>O74/B74</f>
+        <f t="shared" si="4"/>
         <v>2.4511216859279399</v>
       </c>
     </row>
@@ -12285,23 +13399,23 @@
     </row>
     <row r="126" spans="1:19" s="83" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="85"/>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="119"/>
-      <c r="G126" s="119"/>
-      <c r="H126" s="119"/>
-      <c r="I126" s="119"/>
-      <c r="J126" s="119"/>
-      <c r="K126" s="119"/>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="119"/>
-      <c r="O126" s="119"/>
-      <c r="P126" s="119"/>
-      <c r="Q126" s="119"/>
-      <c r="R126" s="119"/>
-      <c r="S126" s="119"/>
+      <c r="F126" s="124"/>
+      <c r="G126" s="124"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="124"/>
+      <c r="J126" s="124"/>
+      <c r="K126" s="124"/>
+      <c r="L126" s="124"/>
+      <c r="M126" s="124"/>
+      <c r="N126" s="124"/>
+      <c r="O126" s="124"/>
+      <c r="P126" s="124"/>
+      <c r="Q126" s="124"/>
+      <c r="R126" s="124"/>
+      <c r="S126" s="124"/>
     </row>
     <row r="127" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B127" s="2" t="s">
@@ -14186,6 +15300,53 @@
       </c>
       <c r="S158" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A162" s="64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" t="s">
+        <v>322</v>
+      </c>
+      <c r="D163" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="C164">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D164">
+        <v>127.36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165">
+        <v>440.44</v>
+      </c>
+      <c r="C165">
+        <v>30.95</v>
+      </c>
+      <c r="D165">
+        <v>395.79</v>
       </c>
     </row>
   </sheetData>
@@ -14203,6 +15364,1694 @@
     <mergeCell ref="O65:Q65"/>
     <mergeCell ref="J65:K65"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.06640625" customWidth="1"/>
+    <col min="4" max="4" width="17.9296875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.53125" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
+    <col min="11" max="11" width="16.796875" customWidth="1"/>
+    <col min="13" max="13" width="15.19921875" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.65">
+      <c r="A1" s="64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="126"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.77555756156E-17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.17792189894E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0954451150100001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.1102230246299999E-16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.41067359797E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.44913767462E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.77555756156E-17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.6953597148299996E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.7823299831300003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2555</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.3754104376999997E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.1874342087E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.2196310917699999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="50">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.4871191548299998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" s="50">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.2884098726700001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="11" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131" t="s">
+        <v>370</v>
+      </c>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131" t="s">
+        <v>371</v>
+      </c>
+      <c r="O11" s="131"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="M12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="N12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="O12" s="108" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="1">
+        <f>H13/F13</f>
+        <v>2.5776288619628316</v>
+      </c>
+      <c r="C13" s="1">
+        <f>J13/F13</f>
+        <v>0.99064947208477816</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(L13-J13)/F13</f>
+        <v>0.25119154296697443</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(N13-J13)/F13</f>
+        <v>1.053194114362151</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.7001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10500</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.19847999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10500</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.6281000000000002E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10500</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.5623E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10500</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.15737799999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B33" si="0">H14/F14</f>
+        <v>2.284734737553503</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C33" si="1">J14/F14</f>
+        <v>0.99753604415408859</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D33" si="2">(L14-J14)/F14</f>
+        <v>0.1681403469249832</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E33" si="3">(N14-J14)/F14</f>
+        <v>0.91825298490651042</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.1024000000000004E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11504</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.162271</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11504</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7.0848999999999995E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>11504</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8.2791000000000003E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>11504</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.13606699999999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8467691431824651</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0128237973242242</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11816111585539429</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4406774836322231</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.0260000000000003E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11616</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.41079399999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11616</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.1161000000000002E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11616</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7.9463000000000006E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11616</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.38316299999999998</v>
+      </c>
+      <c r="O15" s="1">
+        <v>11616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6375134553283099</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0002392058366225</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24979069489295538</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1158354263844037</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.3444000000000002E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10500</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8.8208999999999996E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10500</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.3452000000000003E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10500</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4.1806000000000003E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10500</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.077E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5548582315364787</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0206769023870894</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21388546452986668</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0769920430348539</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.7846000000000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>11503</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.5594000000000003E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>11503</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.8214999999999999E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>11503</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.2032E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>11503</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3.7435000000000003E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>11503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5523727475052049</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98693373537224494</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27058654605499316</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1819226075095124</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3929E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11502</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.5552E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11502</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.3747000000000001E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11502</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.7516E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11502</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3.0210000000000001E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8334115438761143</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86625997184420456</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13467855466916936</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56546222430783666</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.1310000000000001E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>584</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.9069999999999999E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>584</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.846E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>584</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.1329999999999999E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>584</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.0509999999999999E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4380403458213258</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.005763688760807</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22190201729106623</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0489913544668588</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.4699999999999998E-4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>421</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.4599999999999996E-4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>421</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>421</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.26E-4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>421</v>
+      </c>
+      <c r="N20" s="1">
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.475352112676056</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42957746478873238</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8169014084507008E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13028169014084504</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.8700000000000003E-4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.22E-4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.186666666666667</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4844444444444445</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12444444444444458</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.2499999999999999E-4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.3399999999999999E-4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4.4799999999999999E-4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7037037037037037</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29629629629629622</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.46E-4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>80</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6.3E-5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>80</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>80</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.25E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111117</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.4E-5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.1E-5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999993</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.2E-5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000017</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.65">
+      <c r="A35" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+      <c r="A36" s="64"/>
+      <c r="B36" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126" t="s">
+        <v>343</v>
+      </c>
+      <c r="G36" s="126"/>
+    </row>
+    <row r="37" spans="1:15" s="83" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+      <c r="A37" s="64"/>
+      <c r="B37" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <v>70.042500000000004</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.2994564575100001E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>59.902500000000003</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.209520285414</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.8469999999999995</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.20990712231799999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>84.484999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.26411171878599998</v>
+      </c>
+      <c r="D39" s="1">
+        <v>60.901499999999999</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.27468663964599999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>23.148499999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.27337291380099998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="21" x14ac:dyDescent="0.65">
+      <c r="A42" s="64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.65">
+      <c r="A1" s="92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="110" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="108">
+        <v>0.24166000000000001</v>
+      </c>
+      <c r="C3" s="108">
+        <v>0.24165</v>
+      </c>
+      <c r="D3" s="108">
+        <f>B3/C3</f>
+        <v>1.0000413821642873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="108">
+        <v>3.5954700000000002</v>
+      </c>
+      <c r="C4" s="108">
+        <v>3.6</v>
+      </c>
+      <c r="D4" s="108">
+        <f t="shared" ref="D4:D10" si="0">B4/C4</f>
+        <v>0.99874166666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="108">
+        <v>1.048576</v>
+      </c>
+      <c r="C5" s="108">
+        <v>1.048576</v>
+      </c>
+      <c r="D5" s="108">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="108">
+        <v>20.561720000000001</v>
+      </c>
+      <c r="C6" s="108">
+        <v>19.753520000000002</v>
+      </c>
+      <c r="D6" s="108">
+        <f t="shared" si="0"/>
+        <v>1.0409142269327187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="108">
+        <v>222.30833000000001</v>
+      </c>
+      <c r="C7" s="108">
+        <v>134.04006999999999</v>
+      </c>
+      <c r="D7" s="108">
+        <f t="shared" si="0"/>
+        <v>1.6585214406408475</v>
+      </c>
+      <c r="E7" s="1">
+        <v>138.51668000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="108">
+        <v>211.57599999999999</v>
+      </c>
+      <c r="C8" s="108">
+        <v>123.88479</v>
+      </c>
+      <c r="D8" s="108">
+        <f t="shared" si="0"/>
+        <v>1.7078448451985107</v>
+      </c>
+      <c r="E8" s="1">
+        <v>127.87208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="108">
+        <v>1.09212</v>
+      </c>
+      <c r="C9" s="108">
+        <v>1.09426</v>
+      </c>
+      <c r="D9" s="108">
+        <f t="shared" si="0"/>
+        <v>0.99804434046753054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="111" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="108">
+        <v>0.36</v>
+      </c>
+      <c r="C10" s="108">
+        <v>0.36055999999999999</v>
+      </c>
+      <c r="D10" s="108">
+        <f t="shared" si="0"/>
+        <v>0.99844686043931663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="1">
+        <v>70487156332.800003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>69571228782.399994</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14/C14</f>
+        <v>1.0131653208722931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="1">
+        <v>287805360847</v>
+      </c>
+      <c r="C15" s="1">
+        <v>274726833509</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15/C15</f>
+        <v>1.0476055693976161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="1">
+        <v>53092433.600000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50382460.799999997</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16/C16</f>
+        <v>1.0537880198181984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.65">
+      <c r="A20" s="92" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14238,11 +17087,11 @@
       <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -14671,11 +17520,11 @@
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -15104,11 +17953,11 @@
       <c r="D39" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="108" t="s">
+      <c r="E39" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -15554,14 +18403,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="34"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="108"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
@@ -15888,14 +18737,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111" t="s">
+      <c r="C21" s="115"/>
+      <c r="D21" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="34" t="s">
@@ -16260,20 +19109,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
@@ -16871,20 +19720,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="115" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
@@ -17532,8 +20381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S202"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17753,23 +20602,23 @@
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
     </row>
     <row r="16" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -18607,23 +21456,23 @@
       <c r="A32" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
     </row>
     <row r="33" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -19633,23 +22482,23 @@
       <c r="A62" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="119" t="s">
+      <c r="E62" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="119"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="119"/>
-      <c r="P62" s="119"/>
-      <c r="Q62" s="119"/>
-      <c r="R62" s="119"/>
-      <c r="S62" s="119"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="124"/>
+      <c r="S62" s="124"/>
     </row>
     <row r="63" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -20484,23 +23333,23 @@
       <c r="A79" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="119" t="s">
+      <c r="E79" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="119"/>
-      <c r="J79" s="119"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="119"/>
-      <c r="M79" s="119"/>
-      <c r="N79" s="119"/>
-      <c r="O79" s="119"/>
-      <c r="P79" s="119"/>
-      <c r="Q79" s="119"/>
-      <c r="R79" s="119"/>
-      <c r="S79" s="119"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="124"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="124"/>
+      <c r="P79" s="124"/>
+      <c r="Q79" s="124"/>
+      <c r="R79" s="124"/>
+      <c r="S79" s="124"/>
     </row>
     <row r="80" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -21697,23 +24546,23 @@
       <c r="A126" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F126" s="119"/>
-      <c r="G126" s="119"/>
-      <c r="H126" s="119"/>
-      <c r="I126" s="119"/>
-      <c r="J126" s="119"/>
-      <c r="K126" s="119"/>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="119"/>
-      <c r="O126" s="119"/>
-      <c r="P126" s="119"/>
-      <c r="Q126" s="119"/>
-      <c r="R126" s="119"/>
-      <c r="S126" s="119"/>
+      <c r="F126" s="124"/>
+      <c r="G126" s="124"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="124"/>
+      <c r="J126" s="124"/>
+      <c r="K126" s="124"/>
+      <c r="L126" s="124"/>
+      <c r="M126" s="124"/>
+      <c r="N126" s="124"/>
+      <c r="O126" s="124"/>
+      <c r="P126" s="124"/>
+      <c r="Q126" s="124"/>
+      <c r="R126" s="124"/>
+      <c r="S126" s="124"/>
     </row>
     <row r="127" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
@@ -22492,23 +25341,23 @@
       <c r="A141" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E141" s="119" t="s">
+      <c r="E141" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F141" s="119"/>
-      <c r="G141" s="119"/>
-      <c r="H141" s="119"/>
-      <c r="I141" s="119"/>
-      <c r="J141" s="119"/>
-      <c r="K141" s="119"/>
-      <c r="L141" s="119"/>
-      <c r="M141" s="119"/>
-      <c r="N141" s="119"/>
-      <c r="O141" s="119"/>
-      <c r="P141" s="119"/>
-      <c r="Q141" s="119"/>
-      <c r="R141" s="119"/>
-      <c r="S141" s="119"/>
+      <c r="F141" s="124"/>
+      <c r="G141" s="124"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="124"/>
+      <c r="J141" s="124"/>
+      <c r="K141" s="124"/>
+      <c r="L141" s="124"/>
+      <c r="M141" s="124"/>
+      <c r="N141" s="124"/>
+      <c r="O141" s="124"/>
+      <c r="P141" s="124"/>
+      <c r="Q141" s="124"/>
+      <c r="R141" s="124"/>
+      <c r="S141" s="124"/>
     </row>
     <row r="142" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
@@ -23626,23 +26475,23 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="120" t="s">
+      <c r="E167" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="F167" s="120"/>
-      <c r="G167" s="120"/>
-      <c r="H167" s="120"/>
-      <c r="I167" s="120"/>
-      <c r="J167" s="120"/>
-      <c r="K167" s="120"/>
-      <c r="L167" s="120"/>
-      <c r="M167" s="120"/>
-      <c r="N167" s="120"/>
-      <c r="O167" s="120"/>
-      <c r="P167" s="120"/>
-      <c r="Q167" s="120"/>
-      <c r="R167" s="120"/>
-      <c r="S167" s="120"/>
+      <c r="F167" s="125"/>
+      <c r="G167" s="125"/>
+      <c r="H167" s="125"/>
+      <c r="I167" s="125"/>
+      <c r="J167" s="125"/>
+      <c r="K167" s="125"/>
+      <c r="L167" s="125"/>
+      <c r="M167" s="125"/>
+      <c r="N167" s="125"/>
+      <c r="O167" s="125"/>
+      <c r="P167" s="125"/>
+      <c r="Q167" s="125"/>
+      <c r="R167" s="125"/>
+      <c r="S167" s="125"/>
     </row>
     <row r="168" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
@@ -24186,23 +27035,23 @@
       <c r="A186" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="119" t="s">
+      <c r="E186" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F186" s="119"/>
-      <c r="G186" s="119"/>
-      <c r="H186" s="119"/>
-      <c r="I186" s="119"/>
-      <c r="J186" s="119"/>
-      <c r="K186" s="119"/>
-      <c r="L186" s="119"/>
-      <c r="M186" s="119"/>
-      <c r="N186" s="119"/>
-      <c r="O186" s="119"/>
-      <c r="P186" s="119"/>
-      <c r="Q186" s="119"/>
-      <c r="R186" s="119"/>
-      <c r="S186" s="119"/>
+      <c r="F186" s="124"/>
+      <c r="G186" s="124"/>
+      <c r="H186" s="124"/>
+      <c r="I186" s="124"/>
+      <c r="J186" s="124"/>
+      <c r="K186" s="124"/>
+      <c r="L186" s="124"/>
+      <c r="M186" s="124"/>
+      <c r="N186" s="124"/>
+      <c r="O186" s="124"/>
+      <c r="P186" s="124"/>
+      <c r="Q186" s="124"/>
+      <c r="R186" s="124"/>
+      <c r="S186" s="124"/>
     </row>
     <row r="187" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
@@ -24328,19 +27177,19 @@
       </c>
     </row>
     <row r="194" spans="1:4" s="83" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B194" s="119" t="s">
+      <c r="B194" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="119" t="s">
+      <c r="C194" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="119"/>
+      <c r="D194" s="124"/>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="119"/>
+      <c r="B195" s="124"/>
       <c r="C195" s="2" t="s">
         <v>185</v>
       </c>
@@ -24485,23 +27334,23 @@
       <c r="A2" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
     </row>
     <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -24656,14 +27505,14 @@
       <c r="C7" s="83"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
     </row>
     <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="83" t="s">
@@ -25042,23 +27891,23 @@
       <c r="A35" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
     </row>
     <row r="36" spans="1:19" s="83" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
@@ -26905,23 +29754,23 @@
       <c r="B71" s="83"/>
       <c r="C71" s="83"/>
       <c r="D71" s="83"/>
-      <c r="E71" s="119" t="s">
+      <c r="E71" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="119"/>
-      <c r="J71" s="119"/>
-      <c r="K71" s="119"/>
-      <c r="L71" s="119"/>
-      <c r="M71" s="119"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="119"/>
-      <c r="P71" s="119"/>
-      <c r="Q71" s="119"/>
-      <c r="R71" s="119"/>
-      <c r="S71" s="119"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="124"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="124"/>
     </row>
     <row r="72" spans="1:19" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
@@ -32571,10 +35420,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="C42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55:K64"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32597,23 +35446,23 @@
       <c r="A1" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="44"/>
@@ -33246,11 +36095,11 @@
       <c r="A25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40" t="s">
@@ -33473,14 +36322,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121" t="s">
+      <c r="C40" s="126"/>
+      <c r="D40" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="121"/>
+      <c r="E40" s="126"/>
     </row>
     <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
@@ -33642,29 +36491,29 @@
       <c r="A55" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="126" t="s">
         <v>274</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121" t="s">
+      <c r="C55" s="126"/>
+      <c r="D55" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="119" t="s">
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119" t="s">
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119" t="s">
+      <c r="K55" s="124"/>
+      <c r="L55" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
     </row>
     <row r="56" spans="1:15" s="83" customFormat="1" ht="57.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="98"/>
@@ -34091,6 +36940,286 @@
         <v>0.99919865152394371</v>
       </c>
       <c r="O64" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1">
+        <v>18.707609999999999</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.34311779158200001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18.539439999999999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.494798812044</v>
+      </c>
+      <c r="F68" s="1">
+        <v>18.717590000000001</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.48172959105699997</v>
+      </c>
+      <c r="H68" s="1">
+        <v>19.27383</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.50217574025400002</v>
+      </c>
+      <c r="J68" s="1">
+        <v>19.311330000000002</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.40799420351299998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.38777878078E-17</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.17061000000000001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.77555756156E-17</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.22302</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7.4833147735500001E-5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.24218000000000001</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.4974000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5.7965506984799999E-4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.6767099999999999</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.81463494951E-3</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.06271</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.5062868252800001E-3</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3.2185700000000002</v>
+      </c>
+      <c r="I70" s="1">
+        <v>8.4867013615400003E-3</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3.6648999999999998</v>
+      </c>
+      <c r="K70" s="1">
+        <v>8.8081780181800007E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="1">
+        <v>56.549370000000003</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6.7281008464499997E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>109.04902</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7.4020170224099999E-2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>113.70416</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.10856360532000001</v>
+      </c>
+      <c r="H71" s="1">
+        <v>138.85346999999999</v>
+      </c>
+      <c r="I71" s="1">
+        <v>8.3559452487400002E-2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>137.39860999999999</v>
+      </c>
+      <c r="K71" s="1">
+        <v>6.9342489860099998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1">
+        <v>51.481810000000003</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6.4964043131599994E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>101.1439</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8.6232835973300004E-2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>105.48269999999999</v>
+      </c>
+      <c r="G72" s="1">
+        <v>8.9563541689700002E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>128.76743999999999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.219160330352</v>
+      </c>
+      <c r="J72" s="1">
+        <v>126.50931</v>
+      </c>
+      <c r="K72" s="1">
+        <v>7.0113970790399993E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1.048576</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2.22044604925E-16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.10772</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.4386104406699999E-3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.71711000000000003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.1545128842900001E-3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.81406999999999996</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.26885775405E-4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1.0240800000000001</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3.2496153618500001E-4</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1.0899399999999999</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1.96580772203E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3.0659419433500001E-4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.27933000000000002</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4.5825756949600001E-5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.33624999999999999</v>
+      </c>
+      <c r="I75" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.36042999999999997</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4.5825756949600001E-5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -34115,8 +37244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39521,7 +42650,10 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1">
+        <f>SUM(D119:D129)</f>
+        <v>2600225223.3999996</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
